--- a/成品统计.xlsx
+++ b/成品统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15264" activeTab="2"/>
+    <workbookView windowHeight="15264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="油漆2020年12月份" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">油漆2020年12月份!$A$1:$I$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020年12月成品库存'!$A$1:$F$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">油漆入库2021年1月份!$A$1:$J$629</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">油漆入库2021年1月份!$A$1:$J$637</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">拼装!$A$1:$H$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">出库!#REF!</definedName>
   </definedNames>
@@ -2808,9 +2808,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2883,66 +2883,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2956,23 +2905,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2998,26 +2947,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3037,6 +2999,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3046,22 +3023,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3085,9 +3055,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3104,15 +3074,45 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3131,7 +3131,505 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3143,337 +3641,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399884029663991"/>
+        <fgColor theme="6" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3485,193 +3671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3851,11 +3851,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3877,11 +3883,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3904,50 +3917,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3969,9 +3940,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3989,7 +3980,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399822992645039"/>
+        <color theme="4" tint="0.399792474135563"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3998,7 +3989,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399792474135563"/>
+        <color theme="4" tint="0.399853511154515"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4028,1153 +4028,1147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="50" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="64" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="64" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="64" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="64" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="64" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5183,119 +5177,125 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5329,7 +5329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5505,37 +5505,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="424">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="5"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="7"/>
+    <cellStyle name="链接单元格 3 2" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -5549,19 +5531,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
-    <cellStyle name="注释" xfId="24" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
-    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
-    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
+    <cellStyle name="注释" xfId="23" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
+    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -5575,28 +5557,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="计算 3 2" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="计算 3 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="输出 3 3" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
+    <cellStyle name="输出 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -5611,83 +5593,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
+    <cellStyle name="适中 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
-    <cellStyle name="链接单元格 3 3" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
+    <cellStyle name="链接单元格 3 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="计算 2 2" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
-    <cellStyle name="计算 2 3" xfId="104"/>
+    <cellStyle name="计算 2 2" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
+    <cellStyle name="计算 2 3" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="输出 2 2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
+    <cellStyle name="输出 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="输出 2 3" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
+    <cellStyle name="输出 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="常规 2 2 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
+    <cellStyle name="常规 2 2 2" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="输出 3 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
+    <cellStyle name="输出 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="适中 3" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
+    <cellStyle name="适中 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="常规 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
-    <cellStyle name="常规 3 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
+    <cellStyle name="常规 3" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
+    <cellStyle name="常规 3 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="常规 4" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
-    <cellStyle name="常规 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
+    <cellStyle name="常规 4" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
+    <cellStyle name="常规 4 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -5696,177 +5678,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="解释性文本 2 3" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
+    <cellStyle name="解释性文本 2 3" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
-    <cellStyle name="好 2 5" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
+    <cellStyle name="好 2 5" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="注释 2 2" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
+    <cellStyle name="注释 2 2" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
-    <cellStyle name="解释性文本 3 3" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
+    <cellStyle name="解释性文本 3 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
-    <cellStyle name="检查单元格 2" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
-    <cellStyle name="检查单元格 3" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
-    <cellStyle name="计算 3 3" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
-    <cellStyle name="好 2 3" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
+    <cellStyle name="检查单元格 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
+    <cellStyle name="检查单元格 3" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
+    <cellStyle name="计算 3 3" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
+    <cellStyle name="好 2 3" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="好 2 4" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
+    <cellStyle name="好 2 4" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="适中 2 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
+    <cellStyle name="适中 2 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="适中 2 3" xfId="230"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
-    <cellStyle name="好 3 4" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
-    <cellStyle name="解释性文本 3" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
+    <cellStyle name="好 3 4" xfId="231"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
+    <cellStyle name="适中 2 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
+    <cellStyle name="解释性文本 3" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="常规 2" xfId="242"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
+    <cellStyle name="常规 2" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="常规 5" xfId="249"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
+    <cellStyle name="常规 5" xfId="250"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="注释 2" xfId="256"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
-    <cellStyle name="注释 3" xfId="259"/>
+    <cellStyle name="注释 2" xfId="258"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
+    <cellStyle name="注释 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="解释性文本 3 2" xfId="271"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
+    <cellStyle name="解释性文本 3 2" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
-    <cellStyle name="适中 2 4" xfId="283"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
-    <cellStyle name="好 3 5" xfId="285"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
-    <cellStyle name="注释 3 2" xfId="287"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
+    <cellStyle name="好 3 5" xfId="284"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
+    <cellStyle name="适中 2 4" xfId="286"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
+    <cellStyle name="注释 3 2" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="适中 3 4" xfId="291"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
+    <cellStyle name="适中 3 4" xfId="293"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="标题 4 2" xfId="308"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
-    <cellStyle name="汇总 2 2" xfId="310"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
+    <cellStyle name="标题 4 2" xfId="309"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
+    <cellStyle name="汇总 2 2" xfId="312"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
-    <cellStyle name="标题 3 3 7" xfId="318"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
-    <cellStyle name="标题 5 2" xfId="322"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
-    <cellStyle name="汇总 3 2" xfId="324"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
+    <cellStyle name="标题 3 3 7" xfId="317"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
+    <cellStyle name="标题 5 2" xfId="323"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
+    <cellStyle name="汇总 3 2" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="汇总 3" xfId="339"/>
-    <cellStyle name="标题 1 3 2" xfId="340"/>
+    <cellStyle name="标题 1 3 2" xfId="339"/>
+    <cellStyle name="汇总 3" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -5875,18 +5857,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
-    <cellStyle name="标题 3 2 5" xfId="350"/>
+    <cellStyle name="标题 3 2 5" xfId="349"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
-    <cellStyle name="标题 3 3 5" xfId="356"/>
+    <cellStyle name="标题 3 3 5" xfId="355"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="解释性文本 2 4" xfId="359"/>
-    <cellStyle name="标题 6" xfId="360"/>
+    <cellStyle name="标题 6" xfId="359"/>
+    <cellStyle name="解释性文本 2 4" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -5898,11 +5880,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="输入 3 2" xfId="372"/>
-    <cellStyle name="常规 2 3" xfId="373"/>
+    <cellStyle name="常规 2 3" xfId="372"/>
+    <cellStyle name="输入 3 2" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="输入 3 3" xfId="375"/>
-    <cellStyle name="常规 2 4" xfId="376"/>
+    <cellStyle name="常规 2 4" xfId="375"/>
+    <cellStyle name="输入 3 3" xfId="376"/>
     <cellStyle name="好 2" xfId="377"/>
     <cellStyle name="好 2 2" xfId="378"/>
     <cellStyle name="好 3" xfId="379"/>
@@ -5927,16 +5909,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="398"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 3" xfId="400"/>
-    <cellStyle name="输入 2 4" xfId="401"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
-    <cellStyle name="输入 2 5" xfId="403"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
-    <cellStyle name="适中 3 3" xfId="405"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
-    <cellStyle name="输入 3 4" xfId="407"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
-    <cellStyle name="输入 3 5" xfId="409"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="401"/>
+    <cellStyle name="输入 2 4" xfId="402"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="403"/>
+    <cellStyle name="输入 2 5" xfId="404"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="405"/>
+    <cellStyle name="适中 3 3" xfId="406"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="407"/>
+    <cellStyle name="输入 3 4" xfId="408"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="409"/>
+    <cellStyle name="输入 3 5" xfId="410"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="411"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="412"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="413"/>
@@ -12230,10 +12212,10 @@
   <sheetPr/>
   <dimension ref="A1:J638"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G618" sqref="G618"/>
+      <selection pane="bottomLeft" activeCell="G637" sqref="G637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05"/>
@@ -25323,175 +25305,168 @@
       <c r="H629" s="14"/>
     </row>
     <row r="630" ht="15.7" spans="2:8">
-      <c r="B630" s="70" t="s">
+      <c r="B630" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="C630" s="71" t="s">
+      <c r="C630" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="D630" s="71" t="s">
+      <c r="D630" s="11" t="s">
         <v>823</v>
       </c>
       <c r="E630" s="12">
         <v>4</v>
       </c>
-      <c r="F630" s="71">
+      <c r="F630" s="11">
         <f>G630/E630</f>
         <v>870</v>
       </c>
       <c r="G630" s="2">
         <v>3480</v>
       </c>
-      <c r="H630" s="72" t="s">
+      <c r="H630" s="2" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="631" ht="15.7" spans="2:8">
-      <c r="B631" s="73"/>
-      <c r="C631" s="71" t="s">
+    <row r="631" ht="15.7" spans="2:7">
+      <c r="B631" s="13"/>
+      <c r="C631" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="D631" s="71" t="s">
+      <c r="D631" s="11" t="s">
         <v>823</v>
       </c>
       <c r="E631" s="12">
         <v>1</v>
       </c>
-      <c r="F631" s="71">
+      <c r="F631" s="11">
         <v>882</v>
       </c>
       <c r="G631" s="2">
         <f>F631*E631</f>
         <v>882</v>
       </c>
-      <c r="H631" s="72"/>
-    </row>
-    <row r="632" ht="15.7" spans="2:8">
-      <c r="B632" s="73"/>
-      <c r="C632" s="71" t="s">
+    </row>
+    <row r="632" ht="15.7" spans="2:7">
+      <c r="B632" s="13"/>
+      <c r="C632" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D632" s="71" t="s">
+      <c r="D632" s="11" t="s">
         <v>823</v>
       </c>
       <c r="E632" s="12">
         <v>4</v>
       </c>
-      <c r="F632" s="71">
+      <c r="F632" s="11">
         <f>G632/E632</f>
         <v>871</v>
       </c>
       <c r="G632" s="2">
         <v>3484</v>
       </c>
-      <c r="H632" s="72"/>
-    </row>
-    <row r="633" ht="15.7" spans="2:8">
-      <c r="B633" s="73"/>
-      <c r="C633" s="71" t="s">
+    </row>
+    <row r="633" ht="15.7" spans="2:7">
+      <c r="B633" s="13"/>
+      <c r="C633" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="D633" s="71" t="s">
+      <c r="D633" s="11" t="s">
         <v>823</v>
       </c>
       <c r="E633" s="12">
         <v>1</v>
       </c>
-      <c r="F633" s="71">
+      <c r="F633" s="11">
         <v>878</v>
       </c>
       <c r="G633" s="2">
         <f>F633*E633</f>
         <v>878</v>
       </c>
-      <c r="H633" s="72"/>
-    </row>
-    <row r="634" ht="15.7" spans="2:8">
-      <c r="B634" s="73"/>
-      <c r="C634" s="71" t="s">
+    </row>
+    <row r="634" ht="15.7" spans="2:7">
+      <c r="B634" s="13"/>
+      <c r="C634" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="D634" s="71" t="s">
+      <c r="D634" s="11" t="s">
         <v>823</v>
       </c>
       <c r="E634" s="12">
         <v>1</v>
       </c>
-      <c r="F634" s="71">
+      <c r="F634" s="11">
         <v>870</v>
       </c>
       <c r="G634" s="2">
         <f>F634*E634</f>
         <v>870</v>
       </c>
-      <c r="H634" s="72"/>
-    </row>
-    <row r="635" ht="15.7" spans="2:8">
-      <c r="B635" s="73"/>
-      <c r="C635" s="71" t="s">
+    </row>
+    <row r="635" ht="15.7" spans="2:7">
+      <c r="B635" s="13"/>
+      <c r="C635" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="D635" s="71" t="s">
+      <c r="D635" s="11" t="s">
         <v>823</v>
       </c>
       <c r="E635" s="12">
         <v>1</v>
       </c>
-      <c r="F635" s="71">
+      <c r="F635" s="11">
         <v>880</v>
       </c>
       <c r="G635" s="2">
         <f>F635*E635</f>
         <v>880</v>
       </c>
-      <c r="H635" s="72"/>
-    </row>
-    <row r="636" ht="15.7" spans="2:8">
-      <c r="B636" s="73"/>
-      <c r="C636" s="71" t="s">
+    </row>
+    <row r="636" ht="15.7" spans="2:7">
+      <c r="B636" s="13"/>
+      <c r="C636" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="D636" s="71" t="s">
+      <c r="D636" s="11" t="s">
         <v>823</v>
       </c>
       <c r="E636" s="12">
         <v>1</v>
       </c>
-      <c r="F636" s="71">
+      <c r="F636" s="11">
         <v>880</v>
       </c>
       <c r="G636" s="2">
         <f>F636*E636</f>
         <v>880</v>
       </c>
-      <c r="H636" s="72"/>
-    </row>
-    <row r="637" ht="15.7" spans="2:8">
-      <c r="B637" s="73"/>
-      <c r="C637" s="71" t="s">
+    </row>
+    <row r="637" ht="15.7" spans="2:7">
+      <c r="B637" s="13"/>
+      <c r="C637" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="D637" s="71" t="s">
+      <c r="D637" s="11" t="s">
         <v>823</v>
       </c>
       <c r="E637" s="12">
         <v>1</v>
       </c>
-      <c r="F637" s="71">
+      <c r="F637" s="11">
         <v>880</v>
       </c>
       <c r="G637" s="2">
         <f>F637*E637</f>
         <v>880</v>
       </c>
-      <c r="H637" s="72"/>
     </row>
     <row r="638" spans="2:8">
-      <c r="B638" s="74"/>
-      <c r="H638" s="75"/>
+      <c r="B638" s="6"/>
+      <c r="H638" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J629">
+  <autoFilter ref="A1:J637">
     <extLst/>
   </autoFilter>
   <mergeCells count="42">
@@ -25551,10 +25526,10 @@
   <sheetPr/>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05"/>
@@ -26416,7 +26391,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O48">
+  <autoFilter ref="A1:O50">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">

--- a/成品统计.xlsx
+++ b/成品统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="油漆2020年12月份" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">油漆2020年12月份!$A$1:$I$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020年12月成品库存'!$A$1:$F$257</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">油漆入库2021年1月份!$A$1:$J$669</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">拼装!$A$1:$H$181</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -2709,9 +2709,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -2743,39 +2743,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2787,23 +2757,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2813,13 +2769,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2839,7 +2788,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2847,7 +2796,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2855,9 +2834,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2876,8 +2893,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2892,46 +2947,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2945,24 +2968,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2970,13 +2977,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2991,7 +2991,325 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3003,31 +3321,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="6" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3039,7 +3435,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,403 +3477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3465,43 +3501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3519,19 +3525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3625,6 +3625,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3657,30 +3699,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3694,6 +3712,24 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3702,7 +3738,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -3712,7 +3748,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.399792474135563"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3730,16 +3766,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399792474135563"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3752,33 +3779,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399853511154515"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3787,1274 +3787,1274 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5088,7 +5088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5161,29 +5161,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="424">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
+    <cellStyle name="链接单元格 3 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="5"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -5197,19 +5188,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="注释" xfId="23" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
-    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
+    <cellStyle name="注释" xfId="24" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
+    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
+    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -5223,28 +5214,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="计算 3 2" xfId="50"/>
+    <cellStyle name="计算 3 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
-    <cellStyle name="输出 3 3" xfId="62"/>
+    <cellStyle name="输出 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -5259,83 +5250,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
-    <cellStyle name="适中 2" xfId="86"/>
+    <cellStyle name="适中 2" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="链接单元格 3 3" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
+    <cellStyle name="链接单元格 3 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
+    <cellStyle name="计算 2 2" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="计算 2 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
+    <cellStyle name="计算 2 3" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="计算 2 3" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
+    <cellStyle name="输出 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="输出 2 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
-    <cellStyle name="输出 2 3" xfId="117"/>
+    <cellStyle name="输出 2 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
-    <cellStyle name="常规 2 2 2" xfId="121"/>
+    <cellStyle name="常规 2 2 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
+    <cellStyle name="输出 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="输出 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
-    <cellStyle name="适中 3" xfId="133"/>
+    <cellStyle name="适中 3" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
+    <cellStyle name="常规 3" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="常规 3" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
-    <cellStyle name="常规 3 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
+    <cellStyle name="常规 3 2" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
-    <cellStyle name="常规 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
-    <cellStyle name="常规 4 2" xfId="152"/>
+    <cellStyle name="常规 4" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
+    <cellStyle name="常规 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -5344,177 +5335,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
+    <cellStyle name="解释性文本 2 3" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="解释性文本 2 3" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
-    <cellStyle name="好 2 5" xfId="184"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
+    <cellStyle name="好 2 5" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
-    <cellStyle name="注释 2 2" xfId="187"/>
+    <cellStyle name="注释 2 2" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
+    <cellStyle name="解释性文本 3 3" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="解释性文本 3 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
+    <cellStyle name="检查单元格 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="检查单元格 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
-    <cellStyle name="检查单元格 3" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
-    <cellStyle name="计算 3 3" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
-    <cellStyle name="好 2 3" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
+    <cellStyle name="检查单元格 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
+    <cellStyle name="计算 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
+    <cellStyle name="好 2 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
-    <cellStyle name="好 2 4" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
+    <cellStyle name="好 2 4" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
+    <cellStyle name="适中 2 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="适中 2 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
-    <cellStyle name="好 3 4" xfId="231"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
-    <cellStyle name="适中 2 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
-    <cellStyle name="解释性文本 3" xfId="235"/>
+    <cellStyle name="适中 2 3" xfId="230"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
+    <cellStyle name="好 3 4" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
+    <cellStyle name="解释性文本 3" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
-    <cellStyle name="常规 2" xfId="243"/>
+    <cellStyle name="常规 2" xfId="242"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
-    <cellStyle name="常规 5" xfId="250"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
+    <cellStyle name="常规 5" xfId="249"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
+    <cellStyle name="注释 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="注释 2" xfId="258"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
+    <cellStyle name="注释 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="注释 3" xfId="261"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
-    <cellStyle name="解释性文本 3 2" xfId="272"/>
+    <cellStyle name="解释性文本 3 2" xfId="271"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
-    <cellStyle name="好 3 5" xfId="284"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
-    <cellStyle name="适中 2 4" xfId="286"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
-    <cellStyle name="注释 3 2" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
+    <cellStyle name="适中 2 4" xfId="283"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
+    <cellStyle name="好 3 5" xfId="285"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
+    <cellStyle name="注释 3 2" xfId="287"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
+    <cellStyle name="适中 3 4" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="适中 3 4" xfId="293"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
-    <cellStyle name="标题 4 2" xfId="309"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
+    <cellStyle name="标题 4 2" xfId="308"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
+    <cellStyle name="汇总 2 2" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="汇总 2 2" xfId="312"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
-    <cellStyle name="标题 3 3 7" xfId="317"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
-    <cellStyle name="标题 5 2" xfId="323"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
-    <cellStyle name="汇总 3 2" xfId="325"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
+    <cellStyle name="标题 3 3 7" xfId="318"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
+    <cellStyle name="标题 5 2" xfId="322"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
+    <cellStyle name="汇总 3 2" xfId="324"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="标题 1 3 2" xfId="339"/>
-    <cellStyle name="汇总 3" xfId="340"/>
+    <cellStyle name="汇总 3" xfId="339"/>
+    <cellStyle name="标题 1 3 2" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -5523,18 +5514,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="标题 3 2 5" xfId="349"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
+    <cellStyle name="标题 3 2 5" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="标题 3 3 5" xfId="355"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
+    <cellStyle name="标题 3 3 5" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="标题 6" xfId="359"/>
-    <cellStyle name="解释性文本 2 4" xfId="360"/>
+    <cellStyle name="解释性文本 2 4" xfId="359"/>
+    <cellStyle name="标题 6" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -5546,11 +5537,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="常规 2 3" xfId="372"/>
-    <cellStyle name="输入 3 2" xfId="373"/>
+    <cellStyle name="输入 3 2" xfId="372"/>
+    <cellStyle name="常规 2 3" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="常规 2 4" xfId="375"/>
-    <cellStyle name="输入 3 3" xfId="376"/>
+    <cellStyle name="输入 3 3" xfId="375"/>
+    <cellStyle name="常规 2 4" xfId="376"/>
     <cellStyle name="好 2" xfId="377"/>
     <cellStyle name="好 2 2" xfId="378"/>
     <cellStyle name="好 3" xfId="379"/>
@@ -5575,16 +5566,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="398"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 3" xfId="400"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="401"/>
-    <cellStyle name="输入 2 4" xfId="402"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="403"/>
-    <cellStyle name="输入 2 5" xfId="404"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="405"/>
-    <cellStyle name="适中 3 3" xfId="406"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="407"/>
-    <cellStyle name="输入 3 4" xfId="408"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="409"/>
-    <cellStyle name="输入 3 5" xfId="410"/>
+    <cellStyle name="输入 2 4" xfId="401"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
+    <cellStyle name="输入 2 5" xfId="403"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
+    <cellStyle name="适中 3 3" xfId="405"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
+    <cellStyle name="输入 3 4" xfId="407"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
+    <cellStyle name="输入 3 5" xfId="409"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="411"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="412"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="413"/>
@@ -5906,7 +5897,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
@@ -9610,9 +9601,9 @@
   <dimension ref="A1:O257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -11881,7 +11872,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G657" sqref="G657:G669"/>
+      <selection pane="bottomLeft" activeCell="I665" sqref="I665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -25596,10 +25587,10 @@
       <c r="E660" s="12">
         <v>5</v>
       </c>
-      <c r="F660" s="36">
+      <c r="F660" s="10">
         <v>5207.4</v>
       </c>
-      <c r="G660" s="36">
+      <c r="G660" s="10">
         <v>5207.4</v>
       </c>
       <c r="H660" s="13"/>
@@ -25615,8 +25606,8 @@
       <c r="E661" s="12">
         <v>6</v>
       </c>
-      <c r="F661" s="37"/>
-      <c r="G661" s="37"/>
+      <c r="F661" s="13"/>
+      <c r="G661" s="13"/>
       <c r="H661" s="13"/>
     </row>
     <row r="662" ht="15.6" spans="2:8">
@@ -25630,8 +25621,8 @@
       <c r="E662" s="12">
         <v>1</v>
       </c>
-      <c r="F662" s="37"/>
-      <c r="G662" s="37"/>
+      <c r="F662" s="13"/>
+      <c r="G662" s="13"/>
       <c r="H662" s="13"/>
     </row>
     <row r="663" ht="15.6" spans="2:8">
@@ -25645,8 +25636,8 @@
       <c r="E663" s="12">
         <v>1</v>
       </c>
-      <c r="F663" s="37"/>
-      <c r="G663" s="37"/>
+      <c r="F663" s="13"/>
+      <c r="G663" s="13"/>
       <c r="H663" s="13"/>
     </row>
     <row r="664" ht="15.6" spans="2:8">
@@ -25660,8 +25651,8 @@
       <c r="E664" s="12">
         <v>1</v>
       </c>
-      <c r="F664" s="37"/>
-      <c r="G664" s="37"/>
+      <c r="F664" s="13"/>
+      <c r="G664" s="13"/>
       <c r="H664" s="13"/>
     </row>
     <row r="665" ht="15.6" spans="2:8">
@@ -25675,8 +25666,8 @@
       <c r="E665" s="12">
         <v>1</v>
       </c>
-      <c r="F665" s="37"/>
-      <c r="G665" s="37"/>
+      <c r="F665" s="13"/>
+      <c r="G665" s="13"/>
       <c r="H665" s="13"/>
     </row>
     <row r="666" ht="15.6" spans="2:8">
@@ -25690,8 +25681,8 @@
       <c r="E666" s="12">
         <v>25</v>
       </c>
-      <c r="F666" s="37"/>
-      <c r="G666" s="37"/>
+      <c r="F666" s="13"/>
+      <c r="G666" s="13"/>
       <c r="H666" s="13"/>
     </row>
     <row r="667" ht="15.6" spans="2:8">
@@ -25705,8 +25696,8 @@
       <c r="E667" s="12">
         <v>9</v>
       </c>
-      <c r="F667" s="38"/>
-      <c r="G667" s="38"/>
+      <c r="F667" s="14"/>
+      <c r="G667" s="14"/>
       <c r="H667" s="13"/>
     </row>
     <row r="668" ht="15.6" spans="2:8">
@@ -25720,10 +25711,10 @@
       <c r="E668" s="12">
         <v>4</v>
       </c>
-      <c r="F668" s="36">
+      <c r="F668" s="10">
         <v>526</v>
       </c>
-      <c r="G668" s="36">
+      <c r="G668" s="10">
         <v>526</v>
       </c>
       <c r="H668" s="13"/>
@@ -25739,8 +25730,8 @@
       <c r="E669" s="12">
         <v>4</v>
       </c>
-      <c r="F669" s="38"/>
-      <c r="G669" s="38"/>
+      <c r="F669" s="14"/>
+      <c r="G669" s="14"/>
       <c r="H669" s="14"/>
     </row>
   </sheetData>
@@ -25816,7 +25807,7 @@
   <sheetPr/>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
@@ -26766,7 +26757,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O54">
+  <autoFilter ref="A1:O55">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">

--- a/成品统计.xlsx
+++ b/成品统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="油漆2020年12月份" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="895">
   <si>
     <t>序号</t>
   </si>
@@ -2612,6 +2612,15 @@
   </si>
   <si>
     <t>L90*90*6</t>
+  </si>
+  <si>
+    <t>大东海</t>
+  </si>
+  <si>
+    <t>3GZ21</t>
+  </si>
+  <si>
+    <t>2021.1.28</t>
   </si>
   <si>
     <t>次梁</t>
@@ -2710,8 +2719,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -2751,6 +2760,134 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2766,82 +2903,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2855,36 +2925,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2893,16 +2933,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2924,32 +2956,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2969,14 +2978,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2991,7 +3000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3003,19 +3018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3027,19 +3030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,289 +3042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3351,7 +3060,445 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,37 +3510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,127 +3528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3610,17 +3619,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3645,15 +3648,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3708,6 +3702,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3721,7 +3739,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3770,15 +3788,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399884029663991"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3787,1270 +3796,1270 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5088,7 +5097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5167,14 +5176,14 @@
   <cellStyles count="424">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="5"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="7"/>
+    <cellStyle name="链接单元格 3 2" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -5188,19 +5197,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
-    <cellStyle name="注释" xfId="24" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
-    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
-    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
+    <cellStyle name="注释" xfId="23" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
+    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -5214,28 +5223,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="计算 3 2" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="计算 3 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="输出 3 3" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
+    <cellStyle name="输出 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -5250,83 +5259,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
+    <cellStyle name="适中 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
-    <cellStyle name="链接单元格 3 3" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
+    <cellStyle name="链接单元格 3 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="计算 2 2" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
-    <cellStyle name="计算 2 3" xfId="104"/>
+    <cellStyle name="计算 2 2" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
+    <cellStyle name="计算 2 3" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="输出 2 2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
+    <cellStyle name="输出 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="输出 2 3" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
+    <cellStyle name="输出 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="常规 2 2 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
+    <cellStyle name="常规 2 2 2" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="输出 3 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
+    <cellStyle name="输出 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="适中 3" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
+    <cellStyle name="适中 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="常规 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
-    <cellStyle name="常规 3 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
+    <cellStyle name="常规 3" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
+    <cellStyle name="常规 3 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="常规 4" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
-    <cellStyle name="常规 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
+    <cellStyle name="常规 4" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
+    <cellStyle name="常规 4 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -5335,177 +5344,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="解释性文本 2 3" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
+    <cellStyle name="解释性文本 2 3" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
-    <cellStyle name="好 2 5" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
+    <cellStyle name="好 2 5" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="注释 2 2" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
+    <cellStyle name="注释 2 2" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
-    <cellStyle name="解释性文本 3 3" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
+    <cellStyle name="解释性文本 3 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
-    <cellStyle name="检查单元格 2" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
-    <cellStyle name="检查单元格 3" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
-    <cellStyle name="计算 3 3" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
-    <cellStyle name="好 2 3" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
+    <cellStyle name="检查单元格 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
+    <cellStyle name="检查单元格 3" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
+    <cellStyle name="计算 3 3" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
+    <cellStyle name="好 2 3" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="好 2 4" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
+    <cellStyle name="好 2 4" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="适中 2 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
+    <cellStyle name="适中 2 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="适中 2 3" xfId="230"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
-    <cellStyle name="好 3 4" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
-    <cellStyle name="解释性文本 3" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
+    <cellStyle name="好 3 4" xfId="231"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
+    <cellStyle name="适中 2 3" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
+    <cellStyle name="解释性文本 3" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="常规 2" xfId="242"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
+    <cellStyle name="常规 2" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="常规 5" xfId="249"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
+    <cellStyle name="常规 5" xfId="250"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="注释 2" xfId="256"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
-    <cellStyle name="注释 3" xfId="259"/>
+    <cellStyle name="注释 2" xfId="258"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
+    <cellStyle name="注释 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="解释性文本 3 2" xfId="271"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
+    <cellStyle name="解释性文本 3 2" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
-    <cellStyle name="适中 2 4" xfId="283"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
-    <cellStyle name="好 3 5" xfId="285"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
-    <cellStyle name="注释 3 2" xfId="287"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
+    <cellStyle name="好 3 5" xfId="284"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
+    <cellStyle name="适中 2 4" xfId="286"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
+    <cellStyle name="注释 3 2" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="适中 3 4" xfId="291"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
+    <cellStyle name="适中 3 4" xfId="293"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="标题 4 2" xfId="308"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
-    <cellStyle name="汇总 2 2" xfId="310"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
+    <cellStyle name="标题 4 2" xfId="309"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
+    <cellStyle name="汇总 2 2" xfId="312"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
-    <cellStyle name="标题 3 3 7" xfId="318"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
-    <cellStyle name="标题 5 2" xfId="322"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
-    <cellStyle name="汇总 3 2" xfId="324"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
+    <cellStyle name="标题 3 3 7" xfId="317"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
+    <cellStyle name="标题 5 2" xfId="323"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
+    <cellStyle name="汇总 3 2" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="汇总 3" xfId="339"/>
-    <cellStyle name="标题 1 3 2" xfId="340"/>
+    <cellStyle name="标题 1 3 2" xfId="339"/>
+    <cellStyle name="汇总 3" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -5514,18 +5523,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
-    <cellStyle name="标题 3 2 5" xfId="350"/>
+    <cellStyle name="标题 3 2 5" xfId="349"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
-    <cellStyle name="标题 3 3 5" xfId="356"/>
+    <cellStyle name="标题 3 3 5" xfId="355"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="解释性文本 2 4" xfId="359"/>
-    <cellStyle name="标题 6" xfId="360"/>
+    <cellStyle name="标题 6" xfId="359"/>
+    <cellStyle name="解释性文本 2 4" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -5537,11 +5546,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="输入 3 2" xfId="372"/>
-    <cellStyle name="常规 2 3" xfId="373"/>
+    <cellStyle name="常规 2 3" xfId="372"/>
+    <cellStyle name="输入 3 2" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="输入 3 3" xfId="375"/>
-    <cellStyle name="常规 2 4" xfId="376"/>
+    <cellStyle name="常规 2 4" xfId="375"/>
+    <cellStyle name="输入 3 3" xfId="376"/>
     <cellStyle name="好 2" xfId="377"/>
     <cellStyle name="好 2 2" xfId="378"/>
     <cellStyle name="好 3" xfId="379"/>
@@ -5566,16 +5575,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="398"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 3" xfId="400"/>
-    <cellStyle name="输入 2 4" xfId="401"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
-    <cellStyle name="输入 2 5" xfId="403"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
-    <cellStyle name="适中 3 3" xfId="405"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
-    <cellStyle name="输入 3 4" xfId="407"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
-    <cellStyle name="输入 3 5" xfId="409"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="401"/>
+    <cellStyle name="输入 2 4" xfId="402"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="403"/>
+    <cellStyle name="输入 2 5" xfId="404"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="405"/>
+    <cellStyle name="适中 3 3" xfId="406"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="407"/>
+    <cellStyle name="输入 3 4" xfId="408"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="409"/>
+    <cellStyle name="输入 3 5" xfId="410"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="411"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="412"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="413"/>
@@ -5897,7 +5906,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
@@ -11867,12 +11876,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J669"/>
+  <dimension ref="A1:J670"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I665" sqref="I665"/>
+      <selection pane="bottomLeft" activeCell="F673" sqref="F673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -25733,6 +25742,27 @@
       <c r="F669" s="14"/>
       <c r="G669" s="14"/>
       <c r="H669" s="14"/>
+    </row>
+    <row r="670" spans="2:8">
+      <c r="B670" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C670" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="E670" s="2">
+        <v>1</v>
+      </c>
+      <c r="F670" s="2">
+        <v>13642.6</v>
+      </c>
+      <c r="G670" s="2">
+        <f>F670*E670</f>
+        <v>13642.6</v>
+      </c>
+      <c r="H670" s="2" t="s">
+        <v>864</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J669">
@@ -25805,7 +25835,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
@@ -25920,7 +25950,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D4" s="2">
         <v>12408</v>
@@ -25952,7 +25982,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D6" s="2">
         <v>6820</v>
@@ -25967,7 +25997,7 @@
     <row r="7" spans="2:6">
       <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D7" s="2">
         <v>1588</v>
@@ -26049,7 +26079,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>181</v>
@@ -26085,7 +26115,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
@@ -26195,7 +26225,7 @@
         <v>490</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D22" s="2">
         <v>2809</v>
@@ -26274,7 +26304,7 @@
         <v>490</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D27" s="2">
         <v>952</v>
@@ -26291,7 +26321,7 @@
         <v>443</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D28" s="2">
         <v>6479.9</v>
@@ -26356,7 +26386,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D32" s="2">
         <v>4158</v>
@@ -26387,7 +26417,7 @@
         <v>605</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D34" s="4">
         <v>27824</v>
@@ -26401,10 +26431,10 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -26421,7 +26451,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D36" s="2">
         <v>46667.9</v>
@@ -26455,7 +26485,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D38" s="2">
         <v>19228.5</v>
@@ -26540,7 +26570,7 @@
         <v>751</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D43" s="2">
         <v>52781.527</v>
@@ -26557,7 +26587,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D44" s="2">
         <v>44206</v>
@@ -26574,7 +26604,7 @@
         <v>710</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D45" s="2">
         <v>34088</v>
@@ -26591,7 +26621,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D46" s="2">
         <v>15215.8</v>
@@ -26605,7 +26635,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>204</v>
@@ -26625,7 +26655,7 @@
         <v>751</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D48" s="2">
         <v>39536.077</v>
@@ -26639,7 +26669,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>212</v>
@@ -26656,7 +26686,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>212</v>
@@ -26673,10 +26703,10 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -26685,12 +26715,12 @@
         <v>162</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>204</v>
@@ -26707,7 +26737,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>204</v>
@@ -26724,10 +26754,10 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D54" s="2">
         <v>3239.4</v>
@@ -26741,10 +26771,10 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D55" s="2">
         <v>16525.4</v>
@@ -26754,6 +26784,20 @@
       </c>
       <c r="F55" s="2" t="s">
         <v>852</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -28570,7 +28614,7 @@
         <v>453</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="F84" s="5">
         <v>625.5</v>
@@ -29207,7 +29251,7 @@
         <v>710</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E113" s="11">
         <v>1</v>
@@ -29229,7 +29273,7 @@
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E114" s="11">
         <v>2</v>
@@ -29249,7 +29293,7 @@
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E115" s="11">
         <v>2</v>
@@ -29269,7 +29313,7 @@
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E116" s="11">
         <v>2</v>
@@ -29289,7 +29333,7 @@
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E117" s="11">
         <v>2</v>
@@ -29309,7 +29353,7 @@
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="11" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E118" s="11">
         <v>1</v>
@@ -29401,7 +29445,7 @@
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>804</v>
@@ -29562,7 +29606,7 @@
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="11" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>823</v>
@@ -29610,7 +29654,7 @@
         <v>818</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>804</v>
@@ -29634,7 +29678,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>804</v>

--- a/成品统计.xlsx
+++ b/成品统计.xlsx
@@ -16,8 +16,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">油漆2020年12月份!$A$1:$I$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020年12月成品库存'!$A$1:$F$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">油漆入库2021年1月份!$A$1:$J$669</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">油漆入库2021年1月份!$A$1:$J$674</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">拼装!$A$1:$H$181</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="895">
   <si>
     <t>序号</t>
   </si>
@@ -2464,6 +2464,9 @@
     <t>GZ4</t>
   </si>
   <si>
+    <t>GZ4C</t>
+  </si>
+  <si>
     <t>GZ4A</t>
   </si>
   <si>
@@ -2503,6 +2506,15 @@
     <t>GL1B</t>
   </si>
   <si>
+    <t>GZ4E</t>
+  </si>
+  <si>
+    <t>GZ4F</t>
+  </si>
+  <si>
+    <t>GL7A</t>
+  </si>
+  <si>
     <t>2021.1.22</t>
   </si>
   <si>
@@ -2699,18 +2711,6 @@
   </si>
   <si>
     <t>TL-16</t>
-  </si>
-  <si>
-    <t>GZ4C</t>
-  </si>
-  <si>
-    <t>GL7A</t>
-  </si>
-  <si>
-    <t>GZ4E</t>
-  </si>
-  <si>
-    <t>GZ4F</t>
   </si>
 </sst>
 </file>
@@ -2718,9 +2718,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -2752,9 +2752,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2766,7 +2766,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2781,21 +2811,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2805,29 +2820,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2835,52 +2827,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2894,16 +2841,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2925,7 +2880,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2933,18 +2887,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2963,7 +2941,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2978,7 +2971,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2986,6 +2979,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3000,61 +3000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3066,7 +3012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3078,25 +3024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3108,79 +3036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3198,18 +3060,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3222,7 +3072,343 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3234,13 +3420,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="5" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3252,145 +3522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
+        <fgColor theme="4" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3402,145 +3534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3628,17 +3628,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3648,15 +3668,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3691,28 +3702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3721,7 +3721,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.399822992645039"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3739,7 +3748,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.399792474135563"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3756,8 +3765,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3766,7 +3775,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399792474135563"/>
+        <color theme="4" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3775,16 +3784,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399822992645039"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3796,1274 +3796,1274 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5097,7 +5097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5165,6 +5165,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5176,14 +5185,14 @@
   <cellStyles count="424">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
+    <cellStyle name="链接单元格 3 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="5"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -5197,19 +5206,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="注释" xfId="23" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
-    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
+    <cellStyle name="注释" xfId="24" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
+    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
+    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -5223,28 +5232,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="计算 3 2" xfId="50"/>
+    <cellStyle name="计算 3 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
-    <cellStyle name="输出 3 3" xfId="62"/>
+    <cellStyle name="输出 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -5259,83 +5268,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
-    <cellStyle name="适中 2" xfId="86"/>
+    <cellStyle name="适中 2" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="链接单元格 3 3" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
+    <cellStyle name="链接单元格 3 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
+    <cellStyle name="计算 2 2" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="计算 2 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
+    <cellStyle name="计算 2 3" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="计算 2 3" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
+    <cellStyle name="输出 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="输出 2 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
-    <cellStyle name="输出 2 3" xfId="117"/>
+    <cellStyle name="输出 2 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
-    <cellStyle name="常规 2 2 2" xfId="121"/>
+    <cellStyle name="常规 2 2 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
+    <cellStyle name="输出 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="输出 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
-    <cellStyle name="适中 3" xfId="133"/>
+    <cellStyle name="适中 3" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
+    <cellStyle name="常规 3" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="常规 3" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
-    <cellStyle name="常规 3 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
+    <cellStyle name="常规 3 2" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
-    <cellStyle name="常规 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
-    <cellStyle name="常规 4 2" xfId="152"/>
+    <cellStyle name="常规 4" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
+    <cellStyle name="常规 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -5344,177 +5353,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
+    <cellStyle name="解释性文本 2 3" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="解释性文本 2 3" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
-    <cellStyle name="好 2 5" xfId="184"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
+    <cellStyle name="好 2 5" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
-    <cellStyle name="注释 2 2" xfId="187"/>
+    <cellStyle name="注释 2 2" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
+    <cellStyle name="解释性文本 3 3" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="解释性文本 3 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
+    <cellStyle name="检查单元格 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="检查单元格 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
-    <cellStyle name="检查单元格 3" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
-    <cellStyle name="计算 3 3" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
-    <cellStyle name="好 2 3" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
+    <cellStyle name="检查单元格 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
+    <cellStyle name="计算 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
+    <cellStyle name="好 2 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
-    <cellStyle name="好 2 4" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
+    <cellStyle name="好 2 4" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
+    <cellStyle name="适中 2 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="适中 2 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
-    <cellStyle name="好 3 4" xfId="231"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
-    <cellStyle name="适中 2 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
-    <cellStyle name="解释性文本 3" xfId="235"/>
+    <cellStyle name="适中 2 3" xfId="230"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
+    <cellStyle name="好 3 4" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
+    <cellStyle name="解释性文本 3" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
-    <cellStyle name="常规 2" xfId="243"/>
+    <cellStyle name="常规 2" xfId="242"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
-    <cellStyle name="常规 5" xfId="250"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
+    <cellStyle name="常规 5" xfId="249"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
+    <cellStyle name="注释 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="注释 2" xfId="258"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
+    <cellStyle name="注释 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="注释 3" xfId="261"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
-    <cellStyle name="解释性文本 3 2" xfId="272"/>
+    <cellStyle name="解释性文本 3 2" xfId="271"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
-    <cellStyle name="好 3 5" xfId="284"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
-    <cellStyle name="适中 2 4" xfId="286"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
-    <cellStyle name="注释 3 2" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
+    <cellStyle name="适中 2 4" xfId="283"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
+    <cellStyle name="好 3 5" xfId="285"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
+    <cellStyle name="注释 3 2" xfId="287"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
+    <cellStyle name="适中 3 4" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="适中 3 4" xfId="293"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
-    <cellStyle name="标题 4 2" xfId="309"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
+    <cellStyle name="标题 4 2" xfId="308"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
+    <cellStyle name="汇总 2 2" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="汇总 2 2" xfId="312"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
-    <cellStyle name="标题 3 3 7" xfId="317"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
-    <cellStyle name="标题 5 2" xfId="323"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
-    <cellStyle name="汇总 3 2" xfId="325"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
+    <cellStyle name="标题 3 3 7" xfId="318"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
+    <cellStyle name="标题 5 2" xfId="322"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
+    <cellStyle name="汇总 3 2" xfId="324"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="标题 1 3 2" xfId="339"/>
-    <cellStyle name="汇总 3" xfId="340"/>
+    <cellStyle name="汇总 3" xfId="339"/>
+    <cellStyle name="标题 1 3 2" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -5523,18 +5532,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="标题 3 2 5" xfId="349"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
+    <cellStyle name="标题 3 2 5" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="标题 3 3 5" xfId="355"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
+    <cellStyle name="标题 3 3 5" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="标题 6" xfId="359"/>
-    <cellStyle name="解释性文本 2 4" xfId="360"/>
+    <cellStyle name="解释性文本 2 4" xfId="359"/>
+    <cellStyle name="标题 6" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -5546,11 +5555,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="常规 2 3" xfId="372"/>
-    <cellStyle name="输入 3 2" xfId="373"/>
+    <cellStyle name="输入 3 2" xfId="372"/>
+    <cellStyle name="常规 2 3" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="常规 2 4" xfId="375"/>
-    <cellStyle name="输入 3 3" xfId="376"/>
+    <cellStyle name="输入 3 3" xfId="375"/>
+    <cellStyle name="常规 2 4" xfId="376"/>
     <cellStyle name="好 2" xfId="377"/>
     <cellStyle name="好 2 2" xfId="378"/>
     <cellStyle name="好 3" xfId="379"/>
@@ -5575,16 +5584,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="398"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 3" xfId="400"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="401"/>
-    <cellStyle name="输入 2 4" xfId="402"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="403"/>
-    <cellStyle name="输入 2 5" xfId="404"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="405"/>
-    <cellStyle name="适中 3 3" xfId="406"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="407"/>
-    <cellStyle name="输入 3 4" xfId="408"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="409"/>
-    <cellStyle name="输入 3 5" xfId="410"/>
+    <cellStyle name="输入 2 4" xfId="401"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
+    <cellStyle name="输入 2 5" xfId="403"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
+    <cellStyle name="适中 3 3" xfId="405"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
+    <cellStyle name="输入 3 4" xfId="407"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
+    <cellStyle name="输入 3 5" xfId="409"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="411"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="412"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="413"/>
@@ -7117,10 +7126,10 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="38" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="2">
@@ -11876,12 +11885,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J670"/>
+  <dimension ref="A1:J675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F673" sqref="F673"/>
+      <selection pane="bottomLeft" activeCell="G618" sqref="G618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -24595,7 +24604,7 @@
         <v>7050</v>
       </c>
       <c r="G611" s="2">
-        <f t="shared" ref="G611:G618" si="20">F611*E611</f>
+        <f>F611*E611</f>
         <v>21150</v>
       </c>
       <c r="H611" s="10" t="s">
@@ -24617,7 +24626,7 @@
         <v>2394</v>
       </c>
       <c r="G612" s="2">
-        <f t="shared" si="20"/>
+        <f>F612*E612</f>
         <v>2394</v>
       </c>
       <c r="H612" s="13"/>
@@ -24637,7 +24646,7 @@
         <v>2394</v>
       </c>
       <c r="G613" s="2">
-        <f t="shared" si="20"/>
+        <f>F613*E613</f>
         <v>2394</v>
       </c>
       <c r="H613" s="13"/>
@@ -24657,7 +24666,7 @@
         <v>2398</v>
       </c>
       <c r="G614" s="2">
-        <f t="shared" si="20"/>
+        <f>F614*E614</f>
         <v>2398</v>
       </c>
       <c r="H614" s="13"/>
@@ -24677,7 +24686,7 @@
         <v>2406</v>
       </c>
       <c r="G615" s="2">
-        <f t="shared" si="20"/>
+        <f>F615*E615</f>
         <v>2406</v>
       </c>
       <c r="H615" s="13"/>
@@ -24697,7 +24706,7 @@
         <v>2342</v>
       </c>
       <c r="G616" s="2">
-        <f t="shared" si="20"/>
+        <f>F616*E616</f>
         <v>2342</v>
       </c>
       <c r="H616" s="13"/>
@@ -24717,59 +24726,56 @@
         <v>4646</v>
       </c>
       <c r="G617" s="2">
-        <f t="shared" si="20"/>
+        <f>F617*E617</f>
         <v>9292</v>
       </c>
       <c r="H617" s="13"/>
     </row>
     <row r="618" spans="2:8">
       <c r="B618" s="34"/>
-      <c r="C618" s="18" t="s">
+      <c r="C618" s="35" t="s">
         <v>812</v>
       </c>
-      <c r="D618" s="18" t="s">
+      <c r="D618" s="35" t="s">
         <v>804</v>
       </c>
       <c r="E618" s="18">
         <v>1</v>
       </c>
-      <c r="F618" s="18">
+      <c r="F618" s="35">
+        <v>2744.4</v>
+      </c>
+      <c r="G618" s="35">
+        <v>2744.4</v>
+      </c>
+      <c r="H618" s="36"/>
+    </row>
+    <row r="619" spans="2:8">
+      <c r="B619" s="37"/>
+      <c r="C619" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="D619" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E619" s="18">
+        <v>1</v>
+      </c>
+      <c r="F619" s="18">
         <v>2340</v>
       </c>
-      <c r="G618" s="2">
-        <f t="shared" si="20"/>
+      <c r="G619" s="2">
+        <f>F619*E619</f>
         <v>2340</v>
       </c>
-      <c r="H618" s="14"/>
-    </row>
-    <row r="619" ht="15.6" spans="2:8">
-      <c r="B619" s="10" t="s">
+      <c r="H619" s="14"/>
+    </row>
+    <row r="620" ht="15.6" spans="2:8">
+      <c r="B620" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="C619" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="D619" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="E619" s="15">
-        <v>1</v>
-      </c>
-      <c r="F619" s="11">
-        <v>2867.172</v>
-      </c>
-      <c r="G619" s="2">
-        <f t="shared" ref="G619:G629" si="21">F619*E619</f>
-        <v>2867.172</v>
-      </c>
-      <c r="H619" s="10" t="s">
+      <c r="C620" s="11" t="s">
         <v>814</v>
-      </c>
-    </row>
-    <row r="620" ht="15.6" spans="2:8">
-      <c r="B620" s="13"/>
-      <c r="C620" s="11" t="s">
-        <v>815</v>
       </c>
       <c r="D620" s="11" t="s">
         <v>753</v>
@@ -24778,13 +24784,15 @@
         <v>1</v>
       </c>
       <c r="F620" s="11">
-        <v>3342.427</v>
+        <v>2867.172</v>
       </c>
       <c r="G620" s="2">
-        <f t="shared" si="21"/>
-        <v>3342.427</v>
-      </c>
-      <c r="H620" s="13"/>
+        <f t="shared" ref="G620:G630" si="20">F620*E620</f>
+        <v>2867.172</v>
+      </c>
+      <c r="H620" s="10" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="621" ht="15.6" spans="2:8">
       <c r="B621" s="13"/>
@@ -24795,14 +24803,14 @@
         <v>753</v>
       </c>
       <c r="E621" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F621" s="11">
-        <v>3621.561</v>
+        <v>3342.427</v>
       </c>
       <c r="G621" s="2">
-        <f t="shared" si="21"/>
-        <v>7243.122</v>
+        <f t="shared" si="20"/>
+        <v>3342.427</v>
       </c>
       <c r="H621" s="13"/>
     </row>
@@ -24815,85 +24823,83 @@
         <v>753</v>
       </c>
       <c r="E622" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F622" s="11">
-        <v>3768.041</v>
+        <v>3621.561</v>
       </c>
       <c r="G622" s="2">
-        <f t="shared" si="21"/>
-        <v>15072.164</v>
+        <f t="shared" si="20"/>
+        <v>7243.122</v>
       </c>
       <c r="H622" s="13"/>
     </row>
     <row r="623" ht="15.6" spans="2:8">
       <c r="B623" s="13"/>
       <c r="C623" s="11" t="s">
-        <v>757</v>
+        <v>818</v>
       </c>
       <c r="D623" s="11" t="s">
         <v>753</v>
       </c>
       <c r="E623" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F623" s="11">
-        <v>2261.456</v>
+        <v>3768.041</v>
       </c>
       <c r="G623" s="2">
-        <f t="shared" si="21"/>
-        <v>2261.456</v>
+        <f t="shared" si="20"/>
+        <v>15072.164</v>
       </c>
       <c r="H623" s="13"/>
     </row>
     <row r="624" ht="15.6" spans="2:8">
-      <c r="B624" s="14"/>
+      <c r="B624" s="13"/>
       <c r="C624" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D624" s="11" t="s">
         <v>753</v>
       </c>
       <c r="E624" s="15">
+        <v>1</v>
+      </c>
+      <c r="F624" s="11">
+        <v>2261.456</v>
+      </c>
+      <c r="G624" s="2">
+        <f t="shared" si="20"/>
+        <v>2261.456</v>
+      </c>
+      <c r="H624" s="13"/>
+    </row>
+    <row r="625" ht="15.6" spans="2:8">
+      <c r="B625" s="14"/>
+      <c r="C625" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="D625" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E625" s="15">
         <v>2</v>
       </c>
-      <c r="F624" s="11">
+      <c r="F625" s="11">
         <v>4374.868</v>
       </c>
-      <c r="G624" s="2">
-        <f t="shared" si="21"/>
+      <c r="G625" s="2">
+        <f t="shared" si="20"/>
         <v>8749.736</v>
       </c>
-      <c r="H624" s="14"/>
-    </row>
-    <row r="625" spans="2:8">
-      <c r="B625" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="C625" s="18" t="s">
+      <c r="H625" s="14"/>
+    </row>
+    <row r="626" spans="2:8">
+      <c r="B626" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="D625" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="E625" s="2">
-        <v>1</v>
-      </c>
-      <c r="F625" s="2">
-        <v>2360</v>
-      </c>
-      <c r="G625" s="2">
-        <f t="shared" si="21"/>
-        <v>2360</v>
-      </c>
-      <c r="H625" s="10" t="s">
+      <c r="C626" s="18" t="s">
         <v>820</v>
-      </c>
-    </row>
-    <row r="626" spans="2:8">
-      <c r="B626" s="13"/>
-      <c r="C626" s="18" t="s">
-        <v>821</v>
       </c>
       <c r="D626" s="11" t="s">
         <v>804</v>
@@ -24901,14 +24907,16 @@
       <c r="E626" s="2">
         <v>1</v>
       </c>
-      <c r="F626" s="11">
-        <v>2660.4</v>
+      <c r="F626" s="2">
+        <v>2360</v>
       </c>
       <c r="G626" s="2">
-        <f t="shared" si="21"/>
-        <v>2660.4</v>
-      </c>
-      <c r="H626" s="13"/>
+        <f t="shared" si="20"/>
+        <v>2360</v>
+      </c>
+      <c r="H626" s="10" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="627" spans="2:8">
       <c r="B627" s="13"/>
@@ -24916,196 +24924,199 @@
         <v>822</v>
       </c>
       <c r="D627" s="11" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="E627" s="2">
         <v>1</v>
       </c>
       <c r="F627" s="11">
-        <v>889.3</v>
+        <v>2660.4</v>
       </c>
       <c r="G627" s="2">
-        <f t="shared" si="21"/>
-        <v>889.3</v>
+        <f t="shared" si="20"/>
+        <v>2660.4</v>
       </c>
       <c r="H627" s="13"/>
     </row>
     <row r="628" spans="2:8">
       <c r="B628" s="13"/>
       <c r="C628" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="D628" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="D628" s="11" t="s">
-        <v>823</v>
-      </c>
       <c r="E628" s="2">
         <v>1</v>
       </c>
       <c r="F628" s="11">
+        <v>889.3</v>
+      </c>
+      <c r="G628" s="2">
+        <f t="shared" si="20"/>
+        <v>889.3</v>
+      </c>
+      <c r="H628" s="13"/>
+    </row>
+    <row r="629" spans="2:8">
+      <c r="B629" s="13"/>
+      <c r="C629" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="D629" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="E629" s="2">
+        <v>1</v>
+      </c>
+      <c r="F629" s="11">
         <v>892.5</v>
       </c>
-      <c r="G628" s="2">
-        <f t="shared" si="21"/>
+      <c r="G629" s="2">
+        <f t="shared" si="20"/>
         <v>892.5</v>
       </c>
-      <c r="H628" s="13"/>
-    </row>
-    <row r="629" spans="2:8">
-      <c r="B629" s="14"/>
-      <c r="C629" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D629" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="E629" s="2">
-        <v>2</v>
-      </c>
-      <c r="F629" s="2">
-        <v>874</v>
-      </c>
-      <c r="G629" s="2">
-        <f t="shared" si="21"/>
-        <v>1748</v>
-      </c>
-      <c r="H629" s="14"/>
-    </row>
-    <row r="630" ht="15.6" spans="2:8">
-      <c r="B630" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="C630" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="D630" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="E630" s="12">
-        <v>4</v>
-      </c>
-      <c r="F630" s="11">
-        <f>G630/E630</f>
-        <v>870</v>
+      <c r="H629" s="13"/>
+    </row>
+    <row r="630" spans="2:8">
+      <c r="B630" s="36"/>
+      <c r="C630" s="35" t="s">
+        <v>826</v>
+      </c>
+      <c r="D630" s="35" t="s">
+        <v>804</v>
+      </c>
+      <c r="E630" s="2">
+        <v>1</v>
+      </c>
+      <c r="F630" s="35">
+        <v>2423.2</v>
       </c>
       <c r="G630" s="2">
-        <v>3480</v>
-      </c>
-      <c r="H630" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="631" ht="15.6" spans="2:7">
-      <c r="B631" s="13"/>
-      <c r="C631" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="D631" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="E631" s="12">
-        <v>1</v>
-      </c>
-      <c r="F631" s="11">
-        <v>882</v>
+        <f>F630*E630</f>
+        <v>2423.2</v>
+      </c>
+      <c r="H630" s="36"/>
+    </row>
+    <row r="631" spans="2:8">
+      <c r="B631" s="36"/>
+      <c r="C631" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="D631" s="35" t="s">
+        <v>804</v>
+      </c>
+      <c r="E631" s="2">
+        <v>1</v>
+      </c>
+      <c r="F631" s="35">
+        <v>2358.2</v>
       </c>
       <c r="G631" s="2">
         <f>F631*E631</f>
-        <v>882</v>
-      </c>
-    </row>
-    <row r="632" ht="15.6" spans="2:7">
-      <c r="B632" s="13"/>
-      <c r="C632" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D632" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="E632" s="12">
-        <v>4</v>
-      </c>
-      <c r="F632" s="11">
-        <f>G632/E632</f>
-        <v>871</v>
-      </c>
-      <c r="G632" s="2">
-        <v>3484</v>
-      </c>
-    </row>
-    <row r="633" ht="15.6" spans="2:7">
-      <c r="B633" s="13"/>
-      <c r="C633" s="11" t="s">
-        <v>827</v>
+        <v>2358.2</v>
+      </c>
+      <c r="H631" s="36"/>
+    </row>
+    <row r="632" spans="2:8">
+      <c r="B632" s="36"/>
+      <c r="C632" s="35" t="s">
+        <v>828</v>
+      </c>
+      <c r="D632" s="35" t="s">
+        <v>824</v>
+      </c>
+      <c r="E632" s="2">
+        <v>1</v>
+      </c>
+      <c r="F632" s="35">
+        <v>908</v>
+      </c>
+      <c r="G632" s="35">
+        <v>908</v>
+      </c>
+      <c r="H632" s="36"/>
+    </row>
+    <row r="633" spans="2:8">
+      <c r="B633" s="14"/>
+      <c r="C633" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="D633" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="E633" s="12">
-        <v>1</v>
-      </c>
-      <c r="F633" s="11">
-        <v>878</v>
+        <v>824</v>
+      </c>
+      <c r="E633" s="2">
+        <v>2</v>
+      </c>
+      <c r="F633" s="2">
+        <v>874</v>
       </c>
       <c r="G633" s="2">
         <f>F633*E633</f>
-        <v>878</v>
-      </c>
-    </row>
-    <row r="634" ht="15.6" spans="2:7">
-      <c r="B634" s="13"/>
+        <v>1748</v>
+      </c>
+      <c r="H633" s="14"/>
+    </row>
+    <row r="634" ht="15.6" spans="2:8">
+      <c r="B634" s="10" t="s">
+        <v>819</v>
+      </c>
       <c r="C634" s="11" t="s">
-        <v>828</v>
+        <v>483</v>
       </c>
       <c r="D634" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E634" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F634" s="11">
+        <f>G634/E634</f>
         <v>870</v>
       </c>
       <c r="G634" s="2">
-        <f>F634*E634</f>
-        <v>870</v>
+        <v>3480</v>
+      </c>
+      <c r="H634" s="2" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="635" ht="15.6" spans="2:7">
       <c r="B635" s="13"/>
       <c r="C635" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D635" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E635" s="12">
         <v>1</v>
       </c>
       <c r="F635" s="11">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G635" s="2">
         <f>F635*E635</f>
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="636" ht="15.6" spans="2:7">
       <c r="B636" s="13"/>
       <c r="C636" s="11" t="s">
-        <v>830</v>
+        <v>96</v>
       </c>
       <c r="D636" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E636" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F636" s="11">
-        <v>880</v>
+        <f>G636/E636</f>
+        <v>871</v>
       </c>
       <c r="G636" s="2">
-        <f>F636*E636</f>
-        <v>880</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="637" ht="15.6" spans="2:7">
@@ -25114,121 +25125,117 @@
         <v>831</v>
       </c>
       <c r="D637" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E637" s="12">
         <v>1</v>
       </c>
       <c r="F637" s="11">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G637" s="2">
         <f>F637*E637</f>
-        <v>880</v>
-      </c>
-    </row>
-    <row r="638" spans="2:8">
-      <c r="B638" s="10" t="s">
-        <v>818</v>
-      </c>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="638" ht="15.6" spans="2:7">
+      <c r="B638" s="13"/>
       <c r="C638" s="11" t="s">
-        <v>481</v>
+        <v>832</v>
       </c>
       <c r="D638" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="E638" s="11">
-        <v>3</v>
-      </c>
-      <c r="F638" s="2">
-        <v>8708</v>
+        <v>824</v>
+      </c>
+      <c r="E638" s="12">
+        <v>1</v>
+      </c>
+      <c r="F638" s="11">
+        <v>870</v>
       </c>
       <c r="G638" s="2">
-        <v>8708</v>
-      </c>
-      <c r="H638" s="13" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="639" spans="2:8">
+        <f>F638*E638</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="639" ht="15.6" spans="2:7">
       <c r="B639" s="13"/>
       <c r="C639" s="11" t="s">
         <v>833</v>
       </c>
       <c r="D639" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="E639" s="11">
-        <v>1</v>
-      </c>
-      <c r="F639" s="2">
-        <v>2968</v>
+        <v>824</v>
+      </c>
+      <c r="E639" s="12">
+        <v>1</v>
+      </c>
+      <c r="F639" s="11">
+        <v>880</v>
       </c>
       <c r="G639" s="2">
         <f>F639*E639</f>
-        <v>2968</v>
-      </c>
-      <c r="H639" s="13"/>
-    </row>
-    <row r="640" spans="2:8">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="640" ht="15.6" spans="2:7">
       <c r="B640" s="13"/>
       <c r="C640" s="11" t="s">
         <v>834</v>
       </c>
       <c r="D640" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="E640" s="11">
-        <v>1</v>
-      </c>
-      <c r="F640" s="2">
-        <v>2970</v>
+        <v>824</v>
+      </c>
+      <c r="E640" s="12">
+        <v>1</v>
+      </c>
+      <c r="F640" s="11">
+        <v>880</v>
       </c>
       <c r="G640" s="2">
-        <f t="shared" ref="G640:G647" si="22">F640*E640</f>
-        <v>2970</v>
-      </c>
-      <c r="H640" s="13"/>
-    </row>
-    <row r="641" spans="2:8">
+        <f>F640*E640</f>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="641" ht="15.6" spans="2:7">
       <c r="B641" s="13"/>
       <c r="C641" s="11" t="s">
         <v>835</v>
       </c>
       <c r="D641" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="E641" s="11">
-        <v>1</v>
-      </c>
-      <c r="F641" s="2">
-        <v>2984</v>
+        <v>824</v>
+      </c>
+      <c r="E641" s="12">
+        <v>1</v>
+      </c>
+      <c r="F641" s="11">
+        <v>880</v>
       </c>
       <c r="G641" s="2">
-        <f t="shared" si="22"/>
-        <v>2984</v>
-      </c>
-      <c r="H641" s="13"/>
+        <f>F641*E641</f>
+        <v>880</v>
+      </c>
     </row>
     <row r="642" spans="2:8">
-      <c r="B642" s="13"/>
+      <c r="B642" s="10" t="s">
+        <v>819</v>
+      </c>
       <c r="C642" s="11" t="s">
-        <v>836</v>
+        <v>481</v>
       </c>
       <c r="D642" s="11" t="s">
         <v>804</v>
       </c>
       <c r="E642" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F642" s="2">
-        <v>2988</v>
+        <v>8708</v>
       </c>
       <c r="G642" s="2">
-        <f t="shared" si="22"/>
-        <v>2988</v>
-      </c>
-      <c r="H642" s="13"/>
+        <v>8708</v>
+      </c>
+      <c r="H642" s="13" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="643" spans="2:8">
       <c r="B643" s="13"/>
@@ -25242,11 +25249,11 @@
         <v>1</v>
       </c>
       <c r="F643" s="2">
-        <v>2902</v>
+        <v>2968</v>
       </c>
       <c r="G643" s="2">
-        <f t="shared" si="22"/>
-        <v>2902</v>
+        <f>F643*E643</f>
+        <v>2968</v>
       </c>
       <c r="H643" s="13"/>
     </row>
@@ -25262,11 +25269,11 @@
         <v>1</v>
       </c>
       <c r="F644" s="2">
-        <v>1578</v>
+        <v>2970</v>
       </c>
       <c r="G644" s="2">
-        <f t="shared" si="22"/>
-        <v>1578</v>
+        <f t="shared" ref="G644:G651" si="21">F644*E644</f>
+        <v>2970</v>
       </c>
       <c r="H644" s="13"/>
     </row>
@@ -25282,17 +25289,17 @@
         <v>1</v>
       </c>
       <c r="F645" s="2">
-        <v>1546</v>
+        <v>2984</v>
       </c>
       <c r="G645" s="2">
-        <f t="shared" si="22"/>
-        <v>1546</v>
+        <f t="shared" si="21"/>
+        <v>2984</v>
       </c>
       <c r="H645" s="13"/>
     </row>
     <row r="646" spans="2:8">
       <c r="B646" s="13"/>
-      <c r="C646" s="18" t="s">
+      <c r="C646" s="11" t="s">
         <v>840</v>
       </c>
       <c r="D646" s="11" t="s">
@@ -25302,17 +25309,17 @@
         <v>1</v>
       </c>
       <c r="F646" s="2">
-        <v>1572</v>
+        <v>2988</v>
       </c>
       <c r="G646" s="2">
-        <f t="shared" si="22"/>
-        <v>1572</v>
+        <f t="shared" si="21"/>
+        <v>2988</v>
       </c>
       <c r="H646" s="13"/>
     </row>
     <row r="647" spans="2:8">
-      <c r="B647" s="14"/>
-      <c r="C647" s="18" t="s">
+      <c r="B647" s="13"/>
+      <c r="C647" s="11" t="s">
         <v>841</v>
       </c>
       <c r="D647" s="11" t="s">
@@ -25322,106 +25329,100 @@
         <v>1</v>
       </c>
       <c r="F647" s="2">
-        <v>1574</v>
+        <v>2902</v>
       </c>
       <c r="G647" s="2">
-        <f t="shared" si="22"/>
-        <v>1574</v>
-      </c>
-      <c r="H647" s="14"/>
-    </row>
-    <row r="648" spans="2:10">
-      <c r="B648" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="C648" s="18" t="s">
+        <f t="shared" si="21"/>
+        <v>2902</v>
+      </c>
+      <c r="H647" s="13"/>
+    </row>
+    <row r="648" spans="2:8">
+      <c r="B648" s="13"/>
+      <c r="C648" s="11" t="s">
         <v>842</v>
       </c>
       <c r="D648" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="E648" s="2">
-        <v>1</v>
-      </c>
-      <c r="F648" s="11">
-        <v>1599.9</v>
+      <c r="E648" s="11">
+        <v>1</v>
+      </c>
+      <c r="F648" s="2">
+        <v>1578</v>
       </c>
       <c r="G648" s="2">
-        <f t="shared" ref="G648:G656" si="23">F648*E648</f>
-        <v>1599.9</v>
-      </c>
-      <c r="H648" s="10" t="s">
+        <f t="shared" si="21"/>
+        <v>1578</v>
+      </c>
+      <c r="H648" s="13"/>
+    </row>
+    <row r="649" spans="2:8">
+      <c r="B649" s="13"/>
+      <c r="C649" s="11" t="s">
         <v>843</v>
-      </c>
-      <c r="J648"/>
-    </row>
-    <row r="649" spans="2:10">
-      <c r="B649" s="13"/>
-      <c r="C649" s="18" t="s">
-        <v>844</v>
       </c>
       <c r="D649" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="E649" s="2">
-        <v>1</v>
-      </c>
-      <c r="F649" s="11">
-        <v>1588.3</v>
+      <c r="E649" s="11">
+        <v>1</v>
+      </c>
+      <c r="F649" s="2">
+        <v>1546</v>
       </c>
       <c r="G649" s="2">
-        <f t="shared" si="23"/>
-        <v>1588.3</v>
+        <f t="shared" si="21"/>
+        <v>1546</v>
       </c>
       <c r="H649" s="13"/>
-      <c r="J649"/>
-    </row>
-    <row r="650" spans="2:10">
+    </row>
+    <row r="650" spans="2:8">
       <c r="B650" s="13"/>
       <c r="C650" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D650" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="E650" s="2">
-        <v>1</v>
-      </c>
-      <c r="F650" s="11">
-        <v>1599.9</v>
+      <c r="E650" s="11">
+        <v>1</v>
+      </c>
+      <c r="F650" s="2">
+        <v>1572</v>
       </c>
       <c r="G650" s="2">
-        <f t="shared" si="23"/>
-        <v>1599.9</v>
+        <f t="shared" si="21"/>
+        <v>1572</v>
       </c>
       <c r="H650" s="13"/>
-      <c r="J650"/>
-    </row>
-    <row r="651" spans="2:10">
-      <c r="B651" s="13"/>
+    </row>
+    <row r="651" spans="2:8">
+      <c r="B651" s="14"/>
       <c r="C651" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D651" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="E651" s="2">
-        <v>1</v>
-      </c>
-      <c r="F651" s="11">
-        <v>1252</v>
+      <c r="E651" s="11">
+        <v>1</v>
+      </c>
+      <c r="F651" s="2">
+        <v>1574</v>
       </c>
       <c r="G651" s="2">
-        <f t="shared" si="23"/>
-        <v>1252</v>
-      </c>
-      <c r="H651" s="13"/>
-      <c r="J651"/>
-    </row>
-    <row r="652" spans="2:8">
-      <c r="B652" s="13"/>
+        <f t="shared" si="21"/>
+        <v>1574</v>
+      </c>
+      <c r="H651" s="14"/>
+    </row>
+    <row r="652" spans="2:10">
+      <c r="B652" s="10" t="s">
+        <v>819</v>
+      </c>
       <c r="C652" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D652" s="11" t="s">
         <v>804</v>
@@ -25430,15 +25431,18 @@
         <v>1</v>
       </c>
       <c r="F652" s="11">
-        <v>1252</v>
+        <v>1599.9</v>
       </c>
       <c r="G652" s="2">
-        <f t="shared" si="23"/>
-        <v>1252</v>
-      </c>
-      <c r="H652" s="13"/>
-    </row>
-    <row r="653" spans="2:8">
+        <f t="shared" ref="G652:G660" si="22">F652*E652</f>
+        <v>1599.9</v>
+      </c>
+      <c r="H652" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="J652"/>
+    </row>
+    <row r="653" spans="2:10">
       <c r="B653" s="13"/>
       <c r="C653" s="18" t="s">
         <v>848</v>
@@ -25450,15 +25454,16 @@
         <v>1</v>
       </c>
       <c r="F653" s="11">
-        <v>1247.5</v>
+        <v>1588.3</v>
       </c>
       <c r="G653" s="2">
-        <f t="shared" si="23"/>
-        <v>1247.5</v>
+        <f t="shared" si="22"/>
+        <v>1588.3</v>
       </c>
       <c r="H653" s="13"/>
-    </row>
-    <row r="654" spans="2:8">
+      <c r="J653"/>
+    </row>
+    <row r="654" spans="2:10">
       <c r="B654" s="13"/>
       <c r="C654" s="18" t="s">
         <v>849</v>
@@ -25470,20 +25475,19 @@
         <v>1</v>
       </c>
       <c r="F654" s="11">
-        <v>1214.4</v>
+        <v>1599.9</v>
       </c>
       <c r="G654" s="2">
-        <f t="shared" si="23"/>
-        <v>1214.4</v>
-      </c>
-      <c r="H654" s="14"/>
-    </row>
-    <row r="655" spans="2:8">
-      <c r="B655" s="35" t="s">
-        <v>818</v>
-      </c>
-      <c r="C655" s="11" t="s">
-        <v>844</v>
+        <f t="shared" si="22"/>
+        <v>1599.9</v>
+      </c>
+      <c r="H654" s="13"/>
+      <c r="J654"/>
+    </row>
+    <row r="655" spans="2:10">
+      <c r="B655" s="13"/>
+      <c r="C655" s="18" t="s">
+        <v>850</v>
       </c>
       <c r="D655" s="11" t="s">
         <v>804</v>
@@ -25492,188 +25496,211 @@
         <v>1</v>
       </c>
       <c r="F655" s="11">
+        <v>1252</v>
+      </c>
+      <c r="G655" s="2">
+        <f t="shared" si="22"/>
+        <v>1252</v>
+      </c>
+      <c r="H655" s="13"/>
+      <c r="J655"/>
+    </row>
+    <row r="656" spans="2:8">
+      <c r="B656" s="13"/>
+      <c r="C656" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="D656" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="E656" s="2">
+        <v>1</v>
+      </c>
+      <c r="F656" s="11">
+        <v>1252</v>
+      </c>
+      <c r="G656" s="2">
+        <f t="shared" si="22"/>
+        <v>1252</v>
+      </c>
+      <c r="H656" s="13"/>
+    </row>
+    <row r="657" spans="2:8">
+      <c r="B657" s="13"/>
+      <c r="C657" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="D657" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="E657" s="2">
+        <v>1</v>
+      </c>
+      <c r="F657" s="11">
+        <v>1247.5</v>
+      </c>
+      <c r="G657" s="2">
+        <f t="shared" si="22"/>
+        <v>1247.5</v>
+      </c>
+      <c r="H657" s="13"/>
+    </row>
+    <row r="658" spans="2:8">
+      <c r="B658" s="13"/>
+      <c r="C658" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="D658" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="E658" s="2">
+        <v>1</v>
+      </c>
+      <c r="F658" s="11">
+        <v>1214.4</v>
+      </c>
+      <c r="G658" s="2">
+        <f t="shared" si="22"/>
+        <v>1214.4</v>
+      </c>
+      <c r="H658" s="14"/>
+    </row>
+    <row r="659" spans="2:8">
+      <c r="B659" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="C659" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="D659" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="E659" s="2">
+        <v>1</v>
+      </c>
+      <c r="F659" s="11">
         <v>1588.3</v>
       </c>
-      <c r="G655" s="2">
-        <f t="shared" si="23"/>
+      <c r="G659" s="2">
+        <f t="shared" si="22"/>
         <v>1588.3</v>
       </c>
-      <c r="H655" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="656" ht="15.6" spans="2:8">
-      <c r="B656" s="35"/>
-      <c r="C656" s="12" t="s">
+      <c r="H659" s="10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="660" ht="15.6" spans="2:8">
+      <c r="B660" s="38"/>
+      <c r="C660" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="D656" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="E656" s="2">
+      <c r="D660" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="E660" s="2">
         <v>14</v>
       </c>
-      <c r="F656" s="12">
+      <c r="F660" s="12">
         <v>1651.1</v>
       </c>
-      <c r="G656" s="2">
-        <f t="shared" si="23"/>
+      <c r="G660" s="2">
+        <f t="shared" si="22"/>
         <v>23115.4</v>
       </c>
-      <c r="H656" s="14"/>
-    </row>
-    <row r="657" ht="15.6" spans="2:8">
-      <c r="B657" s="13" t="s">
-        <v>818</v>
-      </c>
-      <c r="C657" s="12" t="s">
+      <c r="H660" s="14"/>
+    </row>
+    <row r="661" ht="15.6" spans="2:8">
+      <c r="B661" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="C661" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="D657" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="E657" s="12">
+      <c r="D661" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="E661" s="12">
         <v>4</v>
       </c>
-      <c r="F657" s="2">
+      <c r="F661" s="2">
         <v>6450</v>
       </c>
-      <c r="G657" s="2">
+      <c r="G661" s="2">
         <v>6450</v>
       </c>
-      <c r="H657" s="10" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="658" ht="15.6" spans="2:8">
-      <c r="B658" s="13"/>
-      <c r="C658" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="D658" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="E658" s="12">
-        <v>2</v>
-      </c>
-      <c r="F658" s="2">
-        <v>1613</v>
-      </c>
-      <c r="G658" s="2">
-        <f>E658*F658</f>
-        <v>3226</v>
-      </c>
-      <c r="H658" s="13"/>
-    </row>
-    <row r="659" ht="15.6" spans="2:8">
-      <c r="B659" s="13"/>
-      <c r="C659" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="D659" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="E659" s="12">
-        <v>1</v>
-      </c>
-      <c r="F659" s="2">
-        <v>1116</v>
-      </c>
-      <c r="G659" s="2">
-        <f>F659*E659</f>
-        <v>1116</v>
-      </c>
-      <c r="H659" s="13"/>
-    </row>
-    <row r="660" ht="15.6" spans="2:8">
-      <c r="B660" s="13"/>
-      <c r="C660" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D660" s="12" t="s">
-        <v>854</v>
-      </c>
-      <c r="E660" s="12">
-        <v>5</v>
-      </c>
-      <c r="F660" s="10">
-        <v>5207.4</v>
-      </c>
-      <c r="G660" s="10">
-        <v>5207.4</v>
-      </c>
-      <c r="H660" s="13"/>
-    </row>
-    <row r="661" ht="15.6" spans="2:8">
-      <c r="B661" s="13"/>
-      <c r="C661" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="D661" s="12" t="s">
-        <v>854</v>
-      </c>
-      <c r="E661" s="12">
-        <v>6</v>
-      </c>
-      <c r="F661" s="13"/>
-      <c r="G661" s="13"/>
-      <c r="H661" s="13"/>
+      <c r="H661" s="10" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="662" ht="15.6" spans="2:8">
       <c r="B662" s="13"/>
       <c r="C662" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="D662" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="D662" s="12" t="s">
-        <v>854</v>
-      </c>
       <c r="E662" s="12">
-        <v>1</v>
-      </c>
-      <c r="F662" s="13"/>
-      <c r="G662" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="F662" s="2">
+        <v>1613</v>
+      </c>
+      <c r="G662" s="2">
+        <f>E662*F662</f>
+        <v>3226</v>
+      </c>
       <c r="H662" s="13"/>
     </row>
     <row r="663" ht="15.6" spans="2:8">
       <c r="B663" s="13"/>
       <c r="C663" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="D663" s="12" t="s">
-        <v>854</v>
+        <v>475</v>
+      </c>
+      <c r="D663" s="11" t="s">
+        <v>855</v>
       </c>
       <c r="E663" s="12">
         <v>1</v>
       </c>
-      <c r="F663" s="13"/>
-      <c r="G663" s="13"/>
+      <c r="F663" s="2">
+        <v>1116</v>
+      </c>
+      <c r="G663" s="2">
+        <f>F663*E663</f>
+        <v>1116</v>
+      </c>
       <c r="H663" s="13"/>
     </row>
     <row r="664" ht="15.6" spans="2:8">
       <c r="B664" s="13"/>
       <c r="C664" s="12" t="s">
-        <v>857</v>
+        <v>450</v>
       </c>
       <c r="D664" s="12" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E664" s="12">
-        <v>1</v>
-      </c>
-      <c r="F664" s="13"/>
-      <c r="G664" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="F664" s="10">
+        <v>5207.4</v>
+      </c>
+      <c r="G664" s="10">
+        <v>5207.4</v>
+      </c>
       <c r="H664" s="13"/>
     </row>
     <row r="665" ht="15.6" spans="2:8">
       <c r="B665" s="13"/>
       <c r="C665" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D665" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="D665" s="12" t="s">
-        <v>854</v>
-      </c>
       <c r="E665" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F665" s="13"/>
       <c r="G665" s="13"/>
@@ -25685,10 +25712,10 @@
         <v>859</v>
       </c>
       <c r="D666" s="12" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E666" s="12">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F666" s="13"/>
       <c r="G666" s="13"/>
@@ -25700,72 +25727,138 @@
         <v>860</v>
       </c>
       <c r="D667" s="12" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E667" s="12">
-        <v>9</v>
-      </c>
-      <c r="F667" s="14"/>
-      <c r="G667" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="F667" s="13"/>
+      <c r="G667" s="13"/>
       <c r="H667" s="13"/>
     </row>
     <row r="668" ht="15.6" spans="2:8">
       <c r="B668" s="13"/>
       <c r="C668" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="D668" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="E668" s="12">
+        <v>1</v>
+      </c>
+      <c r="F668" s="13"/>
+      <c r="G668" s="13"/>
+      <c r="H668" s="13"/>
+    </row>
+    <row r="669" ht="15.6" spans="2:8">
+      <c r="B669" s="13"/>
+      <c r="C669" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="D669" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="E669" s="12">
+        <v>1</v>
+      </c>
+      <c r="F669" s="13"/>
+      <c r="G669" s="13"/>
+      <c r="H669" s="13"/>
+    </row>
+    <row r="670" ht="15.6" spans="2:8">
+      <c r="B670" s="13"/>
+      <c r="C670" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="D670" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="E670" s="12">
+        <v>25</v>
+      </c>
+      <c r="F670" s="13"/>
+      <c r="G670" s="13"/>
+      <c r="H670" s="13"/>
+    </row>
+    <row r="671" ht="15.6" spans="2:8">
+      <c r="B671" s="13"/>
+      <c r="C671" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="D671" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="E671" s="12">
+        <v>9</v>
+      </c>
+      <c r="F671" s="14"/>
+      <c r="G671" s="14"/>
+      <c r="H671" s="13"/>
+    </row>
+    <row r="672" ht="15.6" spans="2:8">
+      <c r="B672" s="13"/>
+      <c r="C672" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="D668" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="E668" s="12">
+      <c r="D672" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="E672" s="12">
         <v>4</v>
       </c>
-      <c r="F668" s="10">
+      <c r="F672" s="10">
         <v>526</v>
       </c>
-      <c r="G668" s="10">
+      <c r="G672" s="10">
         <v>526</v>
       </c>
-      <c r="H668" s="13"/>
-    </row>
-    <row r="669" ht="15.6" spans="2:8">
-      <c r="B669" s="14"/>
-      <c r="C669" s="12" t="s">
+      <c r="H672" s="13"/>
+    </row>
+    <row r="673" ht="15.6" spans="2:8">
+      <c r="B673" s="14"/>
+      <c r="C673" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="D669" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="E669" s="12">
+      <c r="D673" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="E673" s="12">
         <v>4</v>
       </c>
-      <c r="F669" s="14"/>
-      <c r="G669" s="14"/>
-      <c r="H669" s="14"/>
-    </row>
-    <row r="670" spans="2:8">
-      <c r="B670" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C670" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="E670" s="2">
-        <v>1</v>
-      </c>
-      <c r="F670" s="2">
+      <c r="F673" s="14"/>
+      <c r="G673" s="14"/>
+      <c r="H673" s="14"/>
+    </row>
+    <row r="674" spans="2:8">
+      <c r="B674" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C674" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="E674" s="2">
+        <v>1</v>
+      </c>
+      <c r="F674" s="2">
         <v>13642.6</v>
       </c>
-      <c r="G670" s="2">
-        <f>F670*E670</f>
+      <c r="G674" s="2">
+        <f>F674*E674</f>
         <v>13642.6</v>
       </c>
-      <c r="H670" s="2" t="s">
-        <v>864</v>
+      <c r="H674" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="675" spans="7:7">
+      <c r="G675" s="2">
+        <f>SUM(G2:G674)</f>
+        <v>710939.384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J669">
+  <autoFilter ref="A1:J674">
     <extLst/>
   </autoFilter>
   <mergeCells count="54">
@@ -25796,33 +25889,33 @@
     <mergeCell ref="B553:B566"/>
     <mergeCell ref="B567:B575"/>
     <mergeCell ref="B576:B610"/>
-    <mergeCell ref="B611:B618"/>
-    <mergeCell ref="B619:B624"/>
-    <mergeCell ref="B625:B629"/>
-    <mergeCell ref="B630:B637"/>
-    <mergeCell ref="B638:B647"/>
-    <mergeCell ref="B648:B654"/>
-    <mergeCell ref="B655:B656"/>
-    <mergeCell ref="B657:B669"/>
+    <mergeCell ref="B611:B619"/>
+    <mergeCell ref="B620:B625"/>
+    <mergeCell ref="B626:B633"/>
+    <mergeCell ref="B634:B641"/>
+    <mergeCell ref="B642:B651"/>
+    <mergeCell ref="B652:B658"/>
+    <mergeCell ref="B659:B660"/>
+    <mergeCell ref="B661:B673"/>
     <mergeCell ref="F395:F396"/>
-    <mergeCell ref="F660:F667"/>
-    <mergeCell ref="F668:F669"/>
+    <mergeCell ref="F664:F671"/>
+    <mergeCell ref="F672:F673"/>
     <mergeCell ref="G395:G396"/>
     <mergeCell ref="G500:G518"/>
-    <mergeCell ref="G660:G667"/>
-    <mergeCell ref="G668:G669"/>
+    <mergeCell ref="G664:G671"/>
+    <mergeCell ref="G672:G673"/>
     <mergeCell ref="H500:H524"/>
     <mergeCell ref="H525:H552"/>
     <mergeCell ref="H553:H566"/>
     <mergeCell ref="H567:H610"/>
-    <mergeCell ref="H611:H618"/>
-    <mergeCell ref="H619:H624"/>
-    <mergeCell ref="H625:H629"/>
-    <mergeCell ref="H630:H637"/>
-    <mergeCell ref="H638:H647"/>
-    <mergeCell ref="H648:H654"/>
-    <mergeCell ref="H655:H656"/>
-    <mergeCell ref="H657:H669"/>
+    <mergeCell ref="H611:H619"/>
+    <mergeCell ref="H620:H625"/>
+    <mergeCell ref="H626:H633"/>
+    <mergeCell ref="H634:H641"/>
+    <mergeCell ref="H642:H651"/>
+    <mergeCell ref="H652:H658"/>
+    <mergeCell ref="H659:H660"/>
+    <mergeCell ref="H661:H673"/>
   </mergeCells>
   <conditionalFormatting sqref="C326:C347">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -25950,7 +26043,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D4" s="2">
         <v>12408</v>
@@ -25982,7 +26075,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D6" s="2">
         <v>6820</v>
@@ -25997,7 +26090,7 @@
     <row r="7" spans="2:6">
       <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D7" s="2">
         <v>1588</v>
@@ -26079,7 +26172,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>181</v>
@@ -26115,7 +26208,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
@@ -26225,7 +26318,7 @@
         <v>490</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="D22" s="2">
         <v>2809</v>
@@ -26304,7 +26397,7 @@
         <v>490</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D27" s="2">
         <v>952</v>
@@ -26321,7 +26414,7 @@
         <v>443</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="D28" s="2">
         <v>6479.9</v>
@@ -26386,7 +26479,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D32" s="2">
         <v>4158</v>
@@ -26417,7 +26510,7 @@
         <v>605</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D34" s="4">
         <v>27824</v>
@@ -26431,10 +26524,10 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -26451,7 +26544,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D36" s="2">
         <v>46667.9</v>
@@ -26485,7 +26578,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D38" s="2">
         <v>19228.5</v>
@@ -26570,7 +26663,7 @@
         <v>751</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D43" s="2">
         <v>52781.527</v>
@@ -26587,7 +26680,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D44" s="2">
         <v>44206</v>
@@ -26604,7 +26697,7 @@
         <v>710</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D45" s="2">
         <v>34088</v>
@@ -26621,7 +26714,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D46" s="2">
         <v>15215.8</v>
@@ -26635,7 +26728,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>204</v>
@@ -26655,7 +26748,7 @@
         <v>751</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D48" s="2">
         <v>39536.077</v>
@@ -26664,12 +26757,12 @@
         <v>162</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>212</v>
@@ -26681,12 +26774,12 @@
         <v>162</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>212</v>
@@ -26698,15 +26791,15 @@
         <v>162</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -26715,12 +26808,12 @@
         <v>162</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>204</v>
@@ -26732,12 +26825,12 @@
         <v>162</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>204</v>
@@ -26749,15 +26842,15 @@
         <v>162</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D54" s="2">
         <v>3239.4</v>
@@ -26766,15 +26859,15 @@
         <v>162</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D55" s="2">
         <v>16525.4</v>
@@ -26783,12 +26876,12 @@
         <v>162</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>204</v>
@@ -26797,11 +26890,11 @@
         <v>162</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O55">
+  <autoFilter ref="A1:O56">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
@@ -28614,7 +28707,7 @@
         <v>453</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="F84" s="5">
         <v>625.5</v>
@@ -29053,7 +29146,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>523</v>
@@ -29226,7 +29319,7 @@
       </c>
       <c r="B112" s="14"/>
       <c r="C112" s="11" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>804</v>
@@ -29251,7 +29344,7 @@
         <v>710</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E113" s="11">
         <v>1</v>
@@ -29273,7 +29366,7 @@
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E114" s="11">
         <v>2</v>
@@ -29293,7 +29386,7 @@
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="E115" s="11">
         <v>2</v>
@@ -29313,7 +29406,7 @@
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="E116" s="11">
         <v>2</v>
@@ -29333,7 +29426,7 @@
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="E117" s="11">
         <v>2</v>
@@ -29353,7 +29446,7 @@
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="11" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E118" s="11">
         <v>1</v>
@@ -29375,7 +29468,7 @@
         <v>751</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>753</v>
@@ -29397,7 +29490,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>753</v>
@@ -29419,10 +29512,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>804</v>
@@ -29445,7 +29538,7 @@
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>891</v>
+        <v>812</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>804</v>
@@ -29468,7 +29561,7 @@
       </c>
       <c r="B123" s="13"/>
       <c r="C123" s="11" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>804</v>
@@ -29494,7 +29587,7 @@
         <v>483</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E124" s="12">
         <v>4</v>
@@ -29514,10 +29607,10 @@
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="11" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E125" s="12">
         <v>1</v>
@@ -29537,10 +29630,10 @@
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>824</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>823</v>
       </c>
       <c r="E126" s="12">
         <v>1</v>
@@ -29560,10 +29653,10 @@
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="11" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E127" s="12">
         <v>1</v>
@@ -29586,7 +29679,7 @@
         <v>97</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E128" s="11">
         <v>2</v>
@@ -29606,10 +29699,10 @@
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="11" t="s">
-        <v>892</v>
+        <v>828</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E129" s="11">
         <v>1</v>
@@ -29629,10 +29722,10 @@
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="11" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E130" s="11">
         <v>1</v>
@@ -29651,10 +29744,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>893</v>
+        <v>826</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>804</v>
@@ -29670,7 +29763,7 @@
         <v>2423.2</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:8">
@@ -29678,7 +29771,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>894</v>
+        <v>827</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>804</v>

--- a/成品统计.xlsx
+++ b/成品统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="油漆2020年12月份" sheetId="2" r:id="rId1"/>
@@ -16,8 +16,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">油漆2020年12月份!$A$1:$I$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020年12月成品库存'!$A$1:$F$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">油漆入库2021年1月份!$A$1:$J$687</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">油漆入库2021年1月份!$A$1:$J$691</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">拼装!$A$1:$H$181</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="912">
   <si>
     <t>序号</t>
   </si>
@@ -2669,6 +2669,24 @@
   </si>
   <si>
     <t>XGAL-8</t>
+  </si>
+  <si>
+    <t>3GZ23</t>
+  </si>
+  <si>
+    <t>PL16*550</t>
+  </si>
+  <si>
+    <t>2021.1.30</t>
+  </si>
+  <si>
+    <t>3GZ26</t>
+  </si>
+  <si>
+    <t>XG</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
   <si>
     <t>次梁</t>
@@ -2753,8 +2771,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2791,6 +2809,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2808,63 +2916,27 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2879,7 +2951,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2888,23 +2960,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2919,61 +2975,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2988,21 +2998,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3017,7 +3021,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3025,6 +3036,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3039,7 +3057,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,13 +3135,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3069,13 +3261,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3087,7 +3291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3099,13 +3309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
+        <fgColor theme="5" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3117,25 +3339,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
+        <fgColor theme="6" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3147,19 +3375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,145 +3387,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
+        <fgColor theme="9" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3321,37 +3423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
+        <fgColor theme="9" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,7 +3441,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3375,13 +3489,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
+        <fgColor theme="8" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
+        <fgColor theme="4" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3393,37 +3513,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,55 +3543,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
+        <fgColor theme="5" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
+        <fgColor theme="6" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
+        <fgColor theme="6" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
+        <fgColor theme="9" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
+        <fgColor theme="6" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3495,43 +3585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3543,43 +3597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3658,17 +3676,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3682,13 +3720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3718,30 +3760,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3752,6 +3770,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3777,15 +3822,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399792474135563"/>
       </bottom>
@@ -3796,7 +3832,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3809,24 +3845,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399853511154515"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3838,1271 +3856,1271 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5212,6 +5230,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11918,12 +11942,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J688"/>
+  <dimension ref="A1:J691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H642" sqref="H642:H651"/>
+      <selection pane="bottomLeft" activeCell="C689" sqref="C689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -25145,14 +25169,81 @@
       </c>
       <c r="H687" s="14"/>
     </row>
-    <row r="688" spans="3:3">
-      <c r="C688" s="30"/>
+    <row r="688" spans="2:8">
+      <c r="B688" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C688" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D688" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="E688" s="2">
+        <v>1</v>
+      </c>
+      <c r="F688" s="4">
+        <v>14203.6</v>
+      </c>
+      <c r="G688" s="2">
+        <f>F688*E688</f>
+        <v>14203.6</v>
+      </c>
+      <c r="H688" s="10" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="689" spans="2:8">
+      <c r="B689" s="14"/>
+      <c r="C689" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="E689" s="2">
+        <v>1</v>
+      </c>
+      <c r="F689" s="4">
+        <v>14082.6</v>
+      </c>
+      <c r="G689" s="2">
+        <f>F689*E689</f>
+        <v>14082.6</v>
+      </c>
+      <c r="H689" s="14"/>
+    </row>
+    <row r="690" ht="15.6" spans="2:5">
+      <c r="B690" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="C690" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="D690" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="E690" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="691" ht="15.6" spans="2:5">
+      <c r="B691" s="38"/>
+      <c r="C691" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="D691" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="E691" s="2">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J687">
+  <autoFilter ref="A1:J691">
     <extLst/>
   </autoFilter>
-  <mergeCells count="71">
+  <mergeCells count="74">
     <mergeCell ref="B2:B21"/>
     <mergeCell ref="B22:B197"/>
     <mergeCell ref="B198:B220"/>
@@ -25190,6 +25281,8 @@
     <mergeCell ref="B661:B674"/>
     <mergeCell ref="B676:B684"/>
     <mergeCell ref="B685:B687"/>
+    <mergeCell ref="B688:B689"/>
+    <mergeCell ref="B690:B691"/>
     <mergeCell ref="F395:F396"/>
     <mergeCell ref="F665:F672"/>
     <mergeCell ref="F673:F674"/>
@@ -25224,6 +25317,7 @@
     <mergeCell ref="H659:H660"/>
     <mergeCell ref="H661:H674"/>
     <mergeCell ref="H676:H687"/>
+    <mergeCell ref="H688:H689"/>
   </mergeCells>
   <conditionalFormatting sqref="C326:C347">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -25236,12 +25330,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -25315,7 +25409,7 @@
       <c r="E2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>219</v>
       </c>
       <c r="H2" s="1">
@@ -25336,9 +25430,7 @@
       <c r="E3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="F3" s="14"/>
       <c r="H3" s="1">
         <v>162853.53</v>
       </c>
@@ -25351,7 +25443,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D4" s="2">
         <v>12408</v>
@@ -25359,7 +25451,7 @@
       <c r="E4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -25374,16 +25466,14 @@
       <c r="E5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="D6" s="2">
         <v>6820</v>
@@ -25391,14 +25481,12 @@
       <c r="E6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="D7" s="2">
         <v>1588</v>
@@ -25406,9 +25494,7 @@
       <c r="E7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
@@ -25423,9 +25509,7 @@
       <c r="E8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
@@ -25440,9 +25524,7 @@
       <c r="E9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
@@ -25457,7 +25539,7 @@
       <c r="E10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>441</v>
       </c>
     </row>
@@ -25474,13 +25556,11 @@
       <c r="E11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>181</v>
@@ -25488,9 +25568,7 @@
       <c r="E12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="2" t="s">
@@ -25499,9 +25577,7 @@
       <c r="E13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="2" t="s">
@@ -25510,13 +25586,11 @@
       <c r="E14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
@@ -25527,7 +25601,7 @@
       <c r="E15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="10" t="s">
         <v>454</v>
       </c>
     </row>
@@ -25541,9 +25615,7 @@
       <c r="E16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
@@ -25558,9 +25630,7 @@
       <c r="E17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="2" t="s">
@@ -25572,9 +25642,7 @@
       <c r="E18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="2" t="s">
@@ -25586,9 +25654,7 @@
       <c r="E19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
@@ -25603,7 +25669,7 @@
       <c r="E20" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="10" t="s">
         <v>482</v>
       </c>
     </row>
@@ -25617,16 +25683,14 @@
       <c r="E21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
         <v>490</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="D22" s="2">
         <v>2809</v>
@@ -25634,9 +25698,7 @@
       <c r="E22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2" t="s">
@@ -25651,9 +25713,7 @@
       <c r="E23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="2" t="s">
@@ -25665,9 +25725,7 @@
       <c r="E24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
@@ -25682,7 +25740,7 @@
       <c r="E25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="10" t="s">
         <v>513</v>
       </c>
     </row>
@@ -25696,16 +25754,14 @@
       <c r="E26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>513</v>
-      </c>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
         <v>490</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D27" s="2">
         <v>952</v>
@@ -25713,16 +25769,14 @@
       <c r="E27" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>513</v>
-      </c>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
         <v>443</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="D28" s="2">
         <v>6479.9</v>
@@ -25730,9 +25784,7 @@
       <c r="E28" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>513</v>
-      </c>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
@@ -25747,7 +25799,7 @@
       <c r="E29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="10" t="s">
         <v>530</v>
       </c>
     </row>
@@ -25764,9 +25816,7 @@
       <c r="E30" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="2" t="s">
@@ -25778,16 +25828,14 @@
       <c r="E31" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D32" s="2">
         <v>4158</v>
@@ -25795,7 +25843,7 @@
       <c r="E32" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="10" t="s">
         <v>559</v>
       </c>
     </row>
@@ -25809,16 +25857,14 @@
       <c r="E33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>559</v>
-      </c>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
         <v>605</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="D34" s="4">
         <v>27824</v>
@@ -25852,7 +25898,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="D36" s="2">
         <v>46667.9</v>
@@ -25860,7 +25906,7 @@
       <c r="E36" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="10" t="s">
         <v>614</v>
       </c>
     </row>
@@ -25877,16 +25923,14 @@
       <c r="E37" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="D38" s="2">
         <v>19228.5</v>
@@ -25928,7 +25972,7 @@
       <c r="E40" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="10" t="s">
         <v>713</v>
       </c>
     </row>
@@ -25945,9 +25989,7 @@
       <c r="E41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>713</v>
-      </c>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2" t="s">
@@ -25962,7 +26004,7 @@
       <c r="E42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="10" t="s">
         <v>730</v>
       </c>
     </row>
@@ -25971,7 +26013,7 @@
         <v>752</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="D43" s="2">
         <v>52781.527</v>
@@ -25979,16 +26021,14 @@
       <c r="E43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>730</v>
-      </c>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="D44" s="2">
         <v>44206</v>
@@ -26005,7 +26045,7 @@
         <v>711</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="D45" s="2">
         <v>34088</v>
@@ -26013,7 +26053,7 @@
       <c r="E45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="10" t="s">
         <v>776</v>
       </c>
     </row>
@@ -26022,7 +26062,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="D46" s="2">
         <v>15215.8</v>
@@ -26030,13 +26070,11 @@
       <c r="E46" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>776</v>
-      </c>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>204</v>
@@ -26070,7 +26108,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>212</v>
@@ -26087,7 +26125,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>212</v>
@@ -26116,12 +26154,12 @@
         <v>162</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>204</v>
@@ -26138,7 +26176,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>204</v>
@@ -26155,10 +26193,10 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D54" s="2">
         <v>24703.7</v>
@@ -26172,10 +26210,10 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D55" s="2">
         <v>21959.4</v>
@@ -26204,14 +26242,59 @@
         <v>871</v>
       </c>
     </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D57" s="2">
+        <v>9797.673</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="2">
+        <v>23982.9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O56">
+  <autoFilter ref="A1:O58">
     <extLst/>
   </autoFilter>
-  <mergeCells count="3">
+  <mergeCells count="16">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F57:F58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -28018,7 +28101,7 @@
         <v>453</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="F84" s="5">
         <v>625.5</v>
@@ -28655,7 +28738,7 @@
         <v>711</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E113" s="11">
         <v>1</v>
@@ -28677,7 +28760,7 @@
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="E114" s="11">
         <v>2</v>
@@ -28697,7 +28780,7 @@
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="E115" s="11">
         <v>2</v>
@@ -28717,7 +28800,7 @@
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="E116" s="11">
         <v>2</v>
@@ -28737,7 +28820,7 @@
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E117" s="11">
         <v>2</v>
@@ -28757,7 +28840,7 @@
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="11" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="E118" s="11">
         <v>1</v>

--- a/成品统计.xlsx
+++ b/成品统计.xlsx
@@ -4,28 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="2"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="油漆2020年12月份" sheetId="2" r:id="rId1"/>
     <sheet name="2020年12月成品库存" sheetId="4" r:id="rId2"/>
     <sheet name="油漆入库2021年1月份" sheetId="5" r:id="rId3"/>
     <sheet name="2021年成品库存" sheetId="6" r:id="rId4"/>
-    <sheet name="拼装" sheetId="1" r:id="rId5"/>
+    <sheet name="2021年油漆2月份" sheetId="7" r:id="rId5"/>
+    <sheet name="拼装" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">油漆2020年12月份!$A$1:$I$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020年12月成品库存'!$A$1:$F$257</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">油漆入库2021年1月份!$A$1:$J$742</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">拼装!$A$1:$H$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021年成品库存'!$A$1:$O$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2021年油漆2月份'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">拼装!$A$1:$H$181</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="956">
   <si>
     <t>序号</t>
   </si>
@@ -2867,6 +2869,9 @@
   </si>
   <si>
     <t>钢柱/吊车梁</t>
+  </si>
+  <si>
+    <t>钢梁/次构件</t>
   </si>
   <si>
     <t>1</t>
@@ -2898,10 +2903,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2937,6 +2942,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2944,24 +2965,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2975,21 +2989,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3004,11 +3011,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3018,9 +3025,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3035,15 +3080,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3057,23 +3124,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3081,7 +3133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3089,17 +3141,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3111,53 +3162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3186,7 +3191,247 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3198,13 +3443,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3216,19 +3497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,49 +3509,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399884029663991"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3294,31 +3605,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
+        <fgColor theme="7" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
+        <fgColor theme="7" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3330,379 +3671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
+        <fgColor theme="7" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3727,6 +3702,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3820,24 +3825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3853,30 +3840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3884,15 +3847,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3916,7 +3870,49 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3926,6 +3922,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3952,7 +3966,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3961,16 +3975,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399853511154515"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3982,1274 +3987,1274 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="54" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5283,7 +5288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5304,18 +5309,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="371" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5359,18 +5364,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5380,14 +5373,14 @@
   <cellStyles count="424">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
+    <cellStyle name="链接单元格 3 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="5"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -5401,19 +5394,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="注释" xfId="23" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
-    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
+    <cellStyle name="注释" xfId="24" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
+    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
+    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -5427,28 +5420,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="计算 3 2" xfId="50"/>
+    <cellStyle name="计算 3 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
-    <cellStyle name="输出 3 3" xfId="62"/>
+    <cellStyle name="输出 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -5463,83 +5456,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
-    <cellStyle name="适中 2" xfId="86"/>
+    <cellStyle name="适中 2" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="链接单元格 3 3" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
+    <cellStyle name="链接单元格 3 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
+    <cellStyle name="计算 2 2" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="计算 2 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
+    <cellStyle name="计算 2 3" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="计算 2 3" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
+    <cellStyle name="输出 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="输出 2 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
-    <cellStyle name="输出 2 3" xfId="117"/>
+    <cellStyle name="输出 2 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
-    <cellStyle name="常规 2 2 2" xfId="121"/>
+    <cellStyle name="常规 2 2 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
+    <cellStyle name="输出 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="输出 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
-    <cellStyle name="适中 3" xfId="133"/>
+    <cellStyle name="适中 3" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
+    <cellStyle name="常规 3" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="常规 3" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
-    <cellStyle name="常规 3 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
+    <cellStyle name="常规 3 2" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
-    <cellStyle name="常规 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
-    <cellStyle name="常规 4 2" xfId="152"/>
+    <cellStyle name="常规 4" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
+    <cellStyle name="常规 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -5548,177 +5541,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
+    <cellStyle name="解释性文本 2 3" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="解释性文本 2 3" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
-    <cellStyle name="好 2 5" xfId="184"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
+    <cellStyle name="好 2 5" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
-    <cellStyle name="注释 2 2" xfId="187"/>
+    <cellStyle name="注释 2 2" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
+    <cellStyle name="解释性文本 3 3" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="解释性文本 3 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
+    <cellStyle name="检查单元格 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="检查单元格 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
-    <cellStyle name="检查单元格 3" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
-    <cellStyle name="计算 3 3" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
-    <cellStyle name="好 2 3" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
+    <cellStyle name="检查单元格 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
+    <cellStyle name="计算 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
+    <cellStyle name="好 2 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
-    <cellStyle name="好 2 4" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
+    <cellStyle name="好 2 4" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
+    <cellStyle name="适中 2 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="适中 2 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
-    <cellStyle name="好 3 4" xfId="231"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
-    <cellStyle name="适中 2 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
-    <cellStyle name="解释性文本 3" xfId="235"/>
+    <cellStyle name="适中 2 3" xfId="230"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
+    <cellStyle name="好 3 4" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
+    <cellStyle name="解释性文本 3" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
-    <cellStyle name="常规 2" xfId="243"/>
+    <cellStyle name="常规 2" xfId="242"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
-    <cellStyle name="常规 5" xfId="250"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
+    <cellStyle name="常规 5" xfId="249"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
+    <cellStyle name="注释 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="注释 2" xfId="258"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
+    <cellStyle name="注释 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="注释 3" xfId="261"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
-    <cellStyle name="解释性文本 3 2" xfId="272"/>
+    <cellStyle name="解释性文本 3 2" xfId="271"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
-    <cellStyle name="好 3 5" xfId="284"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
-    <cellStyle name="适中 2 4" xfId="286"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
-    <cellStyle name="注释 3 2" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
+    <cellStyle name="适中 2 4" xfId="283"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
+    <cellStyle name="好 3 5" xfId="285"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
+    <cellStyle name="注释 3 2" xfId="287"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
+    <cellStyle name="适中 3 4" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="适中 3 4" xfId="293"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
-    <cellStyle name="标题 4 2" xfId="309"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
+    <cellStyle name="标题 4 2" xfId="308"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
+    <cellStyle name="汇总 2 2" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="汇总 2 2" xfId="312"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
-    <cellStyle name="标题 3 3 7" xfId="317"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
-    <cellStyle name="标题 5 2" xfId="323"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
-    <cellStyle name="汇总 3 2" xfId="325"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
+    <cellStyle name="标题 3 3 7" xfId="318"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
+    <cellStyle name="标题 5 2" xfId="322"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
+    <cellStyle name="汇总 3 2" xfId="324"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="标题 1 3 2" xfId="339"/>
-    <cellStyle name="汇总 3" xfId="340"/>
+    <cellStyle name="汇总 3" xfId="339"/>
+    <cellStyle name="标题 1 3 2" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -5727,18 +5720,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="标题 3 2 5" xfId="349"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
+    <cellStyle name="标题 3 2 5" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="标题 3 3 5" xfId="355"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
+    <cellStyle name="标题 3 3 5" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="标题 6" xfId="359"/>
-    <cellStyle name="解释性文本 2 4" xfId="360"/>
+    <cellStyle name="解释性文本 2 4" xfId="359"/>
+    <cellStyle name="标题 6" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -5750,11 +5743,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="常规 2 3" xfId="372"/>
-    <cellStyle name="输入 3 2" xfId="373"/>
+    <cellStyle name="输入 3 2" xfId="372"/>
+    <cellStyle name="常规 2 3" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="常规 2 4" xfId="375"/>
-    <cellStyle name="输入 3 3" xfId="376"/>
+    <cellStyle name="输入 3 3" xfId="375"/>
+    <cellStyle name="常规 2 4" xfId="376"/>
     <cellStyle name="好 2" xfId="377"/>
     <cellStyle name="好 2 2" xfId="378"/>
     <cellStyle name="好 3" xfId="379"/>
@@ -5779,16 +5772,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="398"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 3" xfId="400"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="401"/>
-    <cellStyle name="输入 2 4" xfId="402"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="403"/>
-    <cellStyle name="输入 2 5" xfId="404"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="405"/>
-    <cellStyle name="适中 3 3" xfId="406"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="407"/>
-    <cellStyle name="输入 3 4" xfId="408"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="409"/>
-    <cellStyle name="输入 3 5" xfId="410"/>
+    <cellStyle name="输入 2 4" xfId="401"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
+    <cellStyle name="输入 2 5" xfId="403"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
+    <cellStyle name="适中 3 3" xfId="405"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
+    <cellStyle name="输入 3 4" xfId="407"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
+    <cellStyle name="输入 3 5" xfId="409"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="411"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="412"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="413"/>
@@ -6107,13 +6100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6159,7 +6152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6186,7 +6179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6211,7 +6204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6236,7 +6229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6261,7 +6254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6286,7 +6279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6311,7 +6304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6336,7 +6329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6361,7 +6354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6386,7 +6379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6411,7 +6404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6436,7 +6429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6461,7 +6454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6486,7 +6479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6511,7 +6504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6536,7 +6529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:8">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6561,7 +6554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6586,7 +6579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6611,7 +6604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:8">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6636,7 +6629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:8">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6661,7 +6654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:8">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6688,7 +6681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6713,7 +6706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6738,7 +6731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6763,7 +6756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6788,7 +6781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6813,7 +6806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6838,7 +6831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6865,7 +6858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6890,7 +6883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6915,7 +6908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6940,7 +6933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6965,7 +6958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6990,7 +6983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7015,7 +7008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7040,7 +7033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7065,7 +7058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7090,7 +7083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7115,7 +7108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7142,7 +7135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7167,7 +7160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7192,7 +7185,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7217,7 +7210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7242,7 +7235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7267,7 +7260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -7292,7 +7285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -7317,7 +7310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -7341,7 +7334,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -7365,7 +7358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -7387,7 +7380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -7409,7 +7402,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -7431,7 +7424,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -7453,7 +7446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -7475,7 +7468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -7497,7 +7490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -7519,7 +7512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7541,7 +7534,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7563,7 +7556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7585,7 +7578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -7607,7 +7600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -8041,7 +8034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" ht="15.6" hidden="1" spans="1:8">
+    <row r="79" ht="15.6" spans="1:8">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -8068,7 +8061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="15.6" hidden="1" spans="1:8">
+    <row r="80" ht="15.6" spans="1:8">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -8093,7 +8086,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="15.6" hidden="1" spans="1:8">
+    <row r="81" ht="15.6" spans="1:8">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -8118,7 +8111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="15.6" hidden="1" spans="1:8">
+    <row r="82" ht="15.6" spans="1:8">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -8143,7 +8136,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="15.6" hidden="1" spans="1:8">
+    <row r="83" ht="15.6" spans="1:8">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -8168,7 +8161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="15.6" hidden="1" spans="1:8">
+    <row r="84" ht="15.6" spans="1:8">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -8193,7 +8186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="15.6" hidden="1" spans="1:8">
+    <row r="85" ht="15.6" spans="1:8">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -8218,7 +8211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" ht="15.6" hidden="1" spans="1:8">
+    <row r="86" ht="15.6" spans="1:8">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -8243,7 +8236,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" ht="15.6" hidden="1" spans="1:8">
+    <row r="87" ht="15.6" spans="1:8">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -8268,7 +8261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" ht="15.6" hidden="1" spans="1:8">
+    <row r="88" ht="15.6" spans="1:8">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -8293,7 +8286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" ht="15.6" hidden="1" spans="1:8">
+    <row r="89" ht="15.6" spans="1:8">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -8318,7 +8311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" ht="15.6" hidden="1" spans="1:8">
+    <row r="90" ht="15.6" spans="1:8">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -8343,7 +8336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" ht="15.6" hidden="1" spans="1:8">
+    <row r="91" ht="15.6" spans="1:8">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -8368,7 +8361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" ht="15.6" hidden="1" spans="1:8">
+    <row r="92" ht="15.6" spans="1:8">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -8393,7 +8386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" ht="15.6" hidden="1" spans="1:8">
+    <row r="93" ht="15.6" spans="1:8">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -8418,7 +8411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" ht="15.6" hidden="1" spans="1:8">
+    <row r="94" ht="15.6" spans="1:8">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -8443,7 +8436,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="15.6" hidden="1" spans="1:8">
+    <row r="95" ht="15.6" spans="1:8">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -8468,7 +8461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="15.6" hidden="1" spans="1:8">
+    <row r="96" ht="15.6" spans="1:8">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -8493,7 +8486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="15.6" hidden="1" spans="1:8">
+    <row r="97" ht="15.6" spans="1:8">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -8518,7 +8511,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="15.6" hidden="1" spans="1:8">
+    <row r="98" ht="15.6" spans="1:8">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -8543,7 +8536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="15.6" hidden="1" spans="1:8">
+    <row r="99" ht="15.6" spans="1:8">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -8568,7 +8561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="15.6" hidden="1" spans="1:8">
+    <row r="100" ht="15.6" spans="1:8">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -8593,7 +8586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" ht="15.6" hidden="1" spans="1:8">
+    <row r="101" ht="15.6" spans="1:8">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -8618,7 +8611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" ht="15.6" hidden="1" spans="1:8">
+    <row r="102" ht="15.6" spans="1:8">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -8643,7 +8636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="15.6" hidden="1" spans="1:8">
+    <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -8668,12 +8661,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" ht="15.6" hidden="1" spans="1:8">
+    <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="13"/>
-      <c r="C104" s="41" t="s">
+      <c r="C104" s="37" t="s">
         <v>132</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -8693,7 +8686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="15.6" hidden="1" spans="1:8">
+    <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -8718,12 +8711,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" ht="15.6" hidden="1" spans="1:8">
+    <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="13"/>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="37" t="s">
         <v>136</v>
       </c>
       <c r="D106" s="4" t="s">
@@ -8743,7 +8736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="15.6" hidden="1" spans="1:8">
+    <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -8768,7 +8761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="15.6" hidden="1" spans="1:8">
+    <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -8793,7 +8786,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="15.6" hidden="1" spans="1:8">
+    <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -8818,7 +8811,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="15.6" hidden="1" spans="1:8">
+    <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8843,7 +8836,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="15.6" hidden="1" spans="1:8">
+    <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8868,7 +8861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="15.6" hidden="1" spans="1:8">
+    <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8893,7 +8886,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="15.6" hidden="1" spans="1:8">
+    <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8918,7 +8911,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="15.6" hidden="1" spans="1:8">
+    <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8943,7 +8936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="15.6" hidden="1" spans="1:8">
+    <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8968,7 +8961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="15.6" hidden="1" spans="1:8">
+    <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8993,7 +8986,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="15.6" hidden="1" spans="1:8">
+    <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -9018,7 +9011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="15.6" hidden="1" spans="1:8">
+    <row r="118" ht="15.6" spans="1:8">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -9043,7 +9036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" ht="15.6" hidden="1" spans="1:8">
+    <row r="119" ht="15.6" spans="1:8">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -9068,7 +9061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" ht="15.6" hidden="1" spans="1:8">
+    <row r="120" ht="15.6" spans="1:8">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -9093,7 +9086,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="15.6" hidden="1" spans="1:8">
+    <row r="121" ht="15.6" spans="1:8">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -9118,7 +9111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="15.6" hidden="1" spans="1:8">
+    <row r="122" ht="15.6" spans="1:8">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -9143,7 +9136,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="15.6" hidden="1" spans="1:8">
+    <row r="123" ht="15.6" spans="1:8">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -9168,7 +9161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="15.6" hidden="1" spans="1:8">
+    <row r="124" ht="15.6" spans="1:8">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -9193,7 +9186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="15.6" hidden="1" spans="1:8">
+    <row r="125" ht="15.6" spans="1:8">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -9218,7 +9211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="15.6" hidden="1" spans="1:8">
+    <row r="126" ht="15.6" spans="1:8">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -9355,7 +9348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:8">
+    <row r="132" spans="1:8">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9382,7 +9375,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:8">
+    <row r="133" spans="1:8">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9407,7 +9400,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:8">
+    <row r="134" spans="1:8">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9432,363 +9425,358 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:1">
+    <row r="135" spans="1:1">
       <c r="A135" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:1">
+    <row r="136" spans="1:1">
       <c r="A136" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:1">
+    <row r="137" spans="1:1">
       <c r="A137" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:1">
+    <row r="138" spans="1:1">
       <c r="A138" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:1">
+    <row r="139" spans="1:1">
       <c r="A139" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:1">
+    <row r="140" spans="1:1">
       <c r="A140" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:1">
+    <row r="141" spans="1:1">
       <c r="A141" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:1">
+    <row r="142" spans="1:1">
       <c r="A142" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:1">
+    <row r="143" spans="1:1">
       <c r="A143" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:1">
+    <row r="144" spans="1:1">
       <c r="A144" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:1">
+    <row r="145" spans="1:1">
       <c r="A145" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:1">
+    <row r="146" spans="1:1">
       <c r="A146" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:1">
+    <row r="147" spans="1:1">
       <c r="A147" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:1">
+    <row r="148" spans="1:1">
       <c r="A148" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:1">
+    <row r="149" spans="1:1">
       <c r="A149" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:1">
+    <row r="150" spans="1:1">
       <c r="A150" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:1">
+    <row r="151" spans="1:1">
       <c r="A151" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:1">
+    <row r="152" spans="1:1">
       <c r="A152" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:1">
+    <row r="153" spans="1:1">
       <c r="A153" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:1">
+    <row r="154" spans="1:1">
       <c r="A154" s="2">
         <v>153</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:1">
+    <row r="155" spans="1:1">
       <c r="A155" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:1">
+    <row r="156" spans="1:1">
       <c r="A156" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:1">
+    <row r="157" spans="1:1">
       <c r="A157" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:1">
+    <row r="158" spans="1:1">
       <c r="A158" s="2">
         <v>157</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:1">
+    <row r="159" spans="1:1">
       <c r="A159" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:1">
+    <row r="160" spans="1:1">
       <c r="A160" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:1">
+    <row r="161" spans="1:1">
       <c r="A161" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:1">
+    <row r="162" spans="1:1">
       <c r="A162" s="2">
         <v>161</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:1">
+    <row r="163" spans="1:1">
       <c r="A163" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:1">
+    <row r="164" spans="1:1">
       <c r="A164" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:1">
+    <row r="165" spans="1:1">
       <c r="A165" s="2">
         <v>164</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:1">
+    <row r="166" spans="1:1">
       <c r="A166" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:1">
+    <row r="167" spans="1:1">
       <c r="A167" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:1">
+    <row r="168" spans="1:1">
       <c r="A168" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:1">
+    <row r="169" spans="1:1">
       <c r="A169" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:1">
+    <row r="170" spans="1:1">
       <c r="A170" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:1">
+    <row r="171" spans="1:1">
       <c r="A171" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:1">
+    <row r="172" spans="1:1">
       <c r="A172" s="2">
         <v>171</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:1">
+    <row r="173" spans="1:1">
       <c r="A173" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:1">
+    <row r="174" spans="1:1">
       <c r="A174" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:1">
+    <row r="175" spans="1:1">
       <c r="A175" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:1">
+    <row r="176" spans="1:1">
       <c r="A176" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:1">
+    <row r="177" spans="1:1">
       <c r="A177" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:1">
+    <row r="178" spans="1:1">
       <c r="A178" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:1">
+    <row r="179" spans="1:1">
       <c r="A179" s="2">
         <v>178</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:1">
+    <row r="180" spans="1:1">
       <c r="A180" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:1">
+    <row r="181" spans="1:1">
       <c r="A181" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:1">
+    <row r="182" spans="1:1">
       <c r="A182" s="2">
         <v>181</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:1">
+    <row r="183" spans="1:1">
       <c r="A183" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:1">
+    <row r="184" spans="1:1">
       <c r="A184" s="2">
         <v>183</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:1">
+    <row r="185" spans="1:1">
       <c r="A185" s="2">
         <v>184</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:1">
+    <row r="186" spans="1:1">
       <c r="A186" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:1">
+    <row r="187" spans="1:1">
       <c r="A187" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:1">
+    <row r="188" spans="1:1">
       <c r="A188" s="2">
         <v>187</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:1">
+    <row r="189" spans="1:1">
       <c r="A189" s="2">
         <v>188</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:1">
+    <row r="190" spans="1:1">
       <c r="A190" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:1">
+    <row r="191" spans="1:1">
       <c r="A191" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:1">
+    <row r="192" spans="1:1">
       <c r="A192" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:1">
+    <row r="193" spans="1:1">
       <c r="A193" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:1">
+    <row r="194" spans="1:1">
       <c r="A194" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:1">
+    <row r="195" spans="1:1">
       <c r="A195" s="2">
         <v>194</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:1">
+    <row r="196" spans="1:1">
       <c r="A196" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:1">
+    <row r="197" spans="1:1">
       <c r="A197" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:1">
+    <row r="198" spans="1:1">
       <c r="A198" s="2">
         <v>197</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:1">
+    <row r="199" spans="1:1">
       <c r="A199" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:1">
+    <row r="200" spans="1:1">
       <c r="A200" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:1">
+    <row r="201" spans="1:1">
       <c r="A201" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:1">
+    <row r="202" spans="1:1">
       <c r="A202" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:1">
+    <row r="203" spans="1:1">
       <c r="A203" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:1">
+    <row r="204" spans="1:1">
       <c r="A204" s="2">
         <v>203</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I204">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="浮空栈道"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="9">
@@ -9814,9 +9802,9 @@
   <dimension ref="A1:O257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -9838,50 +9826,50 @@
     <col min="18" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:15">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="21" customFormat="1" spans="1:15">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="21" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12082,10 +12070,10 @@
   <sheetPr/>
   <dimension ref="A1:J742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A725" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L740" sqref="L740"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -12110,13 +12098,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -12128,7 +12116,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25352,10 +25340,10 @@
       <c r="H689" s="14"/>
     </row>
     <row r="690" ht="15.6" spans="2:8">
-      <c r="B690" s="37" t="s">
+      <c r="B690" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="C690" s="38" t="s">
+      <c r="C690" s="11" t="s">
         <v>479</v>
       </c>
       <c r="D690" s="11" t="s">
@@ -25364,20 +25352,20 @@
       <c r="E690" s="12">
         <v>3</v>
       </c>
-      <c r="F690" s="38">
+      <c r="F690" s="11">
         <v>1239.6</v>
       </c>
       <c r="G690" s="2">
         <f t="shared" si="15"/>
         <v>3718.8</v>
       </c>
-      <c r="H690" s="37" t="s">
+      <c r="H690" s="10" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="691" ht="15.6" spans="2:8">
-      <c r="B691" s="39"/>
-      <c r="C691" s="38" t="s">
+      <c r="B691" s="13"/>
+      <c r="C691" s="11" t="s">
         <v>884</v>
       </c>
       <c r="D691" s="11" t="s">
@@ -25386,18 +25374,18 @@
       <c r="E691" s="12">
         <v>1</v>
       </c>
-      <c r="F691" s="38">
+      <c r="F691" s="11">
         <v>1253.9</v>
       </c>
       <c r="G691" s="2">
         <f t="shared" ref="G691:G735" si="16">F691*E691</f>
         <v>1253.9</v>
       </c>
-      <c r="H691" s="39"/>
+      <c r="H691" s="13"/>
     </row>
     <row r="692" ht="15.6" spans="2:8">
-      <c r="B692" s="39"/>
-      <c r="C692" s="38" t="s">
+      <c r="B692" s="13"/>
+      <c r="C692" s="11" t="s">
         <v>528</v>
       </c>
       <c r="D692" s="11" t="s">
@@ -25406,18 +25394,18 @@
       <c r="E692" s="12">
         <v>3</v>
       </c>
-      <c r="F692" s="38">
+      <c r="F692" s="11">
         <v>1368.7</v>
       </c>
       <c r="G692" s="2">
         <f t="shared" si="16"/>
         <v>4106.1</v>
       </c>
-      <c r="H692" s="39"/>
+      <c r="H692" s="13"/>
     </row>
     <row r="693" spans="2:8">
-      <c r="B693" s="39"/>
-      <c r="C693" s="38" t="s">
+      <c r="B693" s="13"/>
+      <c r="C693" s="11" t="s">
         <v>885</v>
       </c>
       <c r="D693" s="11" t="s">
@@ -25426,18 +25414,18 @@
       <c r="E693" s="11">
         <v>1</v>
       </c>
-      <c r="F693" s="38">
+      <c r="F693" s="11">
         <v>514.8</v>
       </c>
       <c r="G693" s="2">
         <f t="shared" si="16"/>
         <v>514.8</v>
       </c>
-      <c r="H693" s="39"/>
+      <c r="H693" s="13"/>
     </row>
     <row r="694" spans="2:8">
-      <c r="B694" s="39"/>
-      <c r="C694" s="38" t="s">
+      <c r="B694" s="13"/>
+      <c r="C694" s="11" t="s">
         <v>886</v>
       </c>
       <c r="D694" s="11" t="s">
@@ -25446,18 +25434,18 @@
       <c r="E694" s="11">
         <v>1</v>
       </c>
-      <c r="F694" s="38">
+      <c r="F694" s="11">
         <v>630.1</v>
       </c>
       <c r="G694" s="2">
         <f t="shared" si="16"/>
         <v>630.1</v>
       </c>
-      <c r="H694" s="39"/>
+      <c r="H694" s="13"/>
     </row>
     <row r="695" spans="2:8">
-      <c r="B695" s="39"/>
-      <c r="C695" s="38" t="s">
+      <c r="B695" s="13"/>
+      <c r="C695" s="11" t="s">
         <v>887</v>
       </c>
       <c r="D695" s="11" t="s">
@@ -25466,18 +25454,18 @@
       <c r="E695" s="11">
         <v>1</v>
       </c>
-      <c r="F695" s="38">
+      <c r="F695" s="11">
         <v>699.2</v>
       </c>
       <c r="G695" s="2">
         <f t="shared" si="16"/>
         <v>699.2</v>
       </c>
-      <c r="H695" s="39"/>
+      <c r="H695" s="13"/>
     </row>
     <row r="696" spans="2:8">
-      <c r="B696" s="39"/>
-      <c r="C696" s="38" t="s">
+      <c r="B696" s="13"/>
+      <c r="C696" s="11" t="s">
         <v>888</v>
       </c>
       <c r="D696" s="11" t="s">
@@ -25486,18 +25474,18 @@
       <c r="E696" s="11">
         <v>1</v>
       </c>
-      <c r="F696" s="38">
+      <c r="F696" s="11">
         <v>752.4</v>
       </c>
       <c r="G696" s="2">
         <f t="shared" si="16"/>
         <v>752.4</v>
       </c>
-      <c r="H696" s="39"/>
+      <c r="H696" s="13"/>
     </row>
     <row r="697" spans="2:8">
-      <c r="B697" s="39"/>
-      <c r="C697" s="38" t="s">
+      <c r="B697" s="13"/>
+      <c r="C697" s="11" t="s">
         <v>889</v>
       </c>
       <c r="D697" s="11" t="s">
@@ -25506,18 +25494,18 @@
       <c r="E697" s="11">
         <v>1</v>
       </c>
-      <c r="F697" s="38">
+      <c r="F697" s="11">
         <v>866.2</v>
       </c>
       <c r="G697" s="2">
         <f t="shared" si="16"/>
         <v>866.2</v>
       </c>
-      <c r="H697" s="39"/>
+      <c r="H697" s="13"/>
     </row>
     <row r="698" ht="15.6" spans="2:8">
-      <c r="B698" s="39"/>
-      <c r="C698" s="38" t="s">
+      <c r="B698" s="13"/>
+      <c r="C698" s="11" t="s">
         <v>890</v>
       </c>
       <c r="D698" s="11" t="s">
@@ -25526,18 +25514,18 @@
       <c r="E698" s="12">
         <v>1</v>
       </c>
-      <c r="F698" s="38">
+      <c r="F698" s="11">
         <v>850.5</v>
       </c>
       <c r="G698" s="2">
         <f t="shared" si="16"/>
         <v>850.5</v>
       </c>
-      <c r="H698" s="39"/>
+      <c r="H698" s="13"/>
     </row>
     <row r="699" ht="15.6" spans="2:8">
-      <c r="B699" s="39"/>
-      <c r="C699" s="38" t="s">
+      <c r="B699" s="13"/>
+      <c r="C699" s="11" t="s">
         <v>615</v>
       </c>
       <c r="D699" s="11" t="s">
@@ -25546,18 +25534,18 @@
       <c r="E699" s="12">
         <v>4</v>
       </c>
-      <c r="F699" s="38">
+      <c r="F699" s="11">
         <v>1092.1</v>
       </c>
       <c r="G699" s="2">
         <f t="shared" si="16"/>
         <v>4368.4</v>
       </c>
-      <c r="H699" s="39"/>
+      <c r="H699" s="13"/>
     </row>
     <row r="700" ht="15.6" spans="2:8">
-      <c r="B700" s="39"/>
-      <c r="C700" s="38" t="s">
+      <c r="B700" s="13"/>
+      <c r="C700" s="11" t="s">
         <v>488</v>
       </c>
       <c r="D700" s="11" t="s">
@@ -25566,18 +25554,18 @@
       <c r="E700" s="12">
         <v>1</v>
       </c>
-      <c r="F700" s="38">
+      <c r="F700" s="11">
         <v>1096.8</v>
       </c>
       <c r="G700" s="2">
         <f t="shared" si="16"/>
         <v>1096.8</v>
       </c>
-      <c r="H700" s="39"/>
+      <c r="H700" s="13"/>
     </row>
     <row r="701" ht="15.6" spans="2:8">
-      <c r="B701" s="39"/>
-      <c r="C701" s="38" t="s">
+      <c r="B701" s="13"/>
+      <c r="C701" s="11" t="s">
         <v>478</v>
       </c>
       <c r="D701" s="11" t="s">
@@ -25586,18 +25574,18 @@
       <c r="E701" s="12">
         <v>1</v>
       </c>
-      <c r="F701" s="38">
+      <c r="F701" s="11">
         <v>1096.8</v>
       </c>
       <c r="G701" s="2">
         <f t="shared" si="16"/>
         <v>1096.8</v>
       </c>
-      <c r="H701" s="39"/>
+      <c r="H701" s="13"/>
     </row>
     <row r="702" ht="15.6" spans="2:8">
-      <c r="B702" s="39"/>
-      <c r="C702" s="38" t="s">
+      <c r="B702" s="13"/>
+      <c r="C702" s="11" t="s">
         <v>489</v>
       </c>
       <c r="D702" s="11" t="s">
@@ -25606,18 +25594,18 @@
       <c r="E702" s="12">
         <v>1</v>
       </c>
-      <c r="F702" s="38">
+      <c r="F702" s="11">
         <v>1097.4</v>
       </c>
       <c r="G702" s="2">
         <f t="shared" si="16"/>
         <v>1097.4</v>
       </c>
-      <c r="H702" s="39"/>
+      <c r="H702" s="13"/>
     </row>
     <row r="703" ht="15.6" spans="2:8">
-      <c r="B703" s="39"/>
-      <c r="C703" s="38" t="s">
+      <c r="B703" s="13"/>
+      <c r="C703" s="11" t="s">
         <v>892</v>
       </c>
       <c r="D703" s="11" t="s">
@@ -25626,18 +25614,18 @@
       <c r="E703" s="12">
         <v>1</v>
       </c>
-      <c r="F703" s="38">
+      <c r="F703" s="11">
         <v>1095.3</v>
       </c>
       <c r="G703" s="2">
         <f t="shared" si="16"/>
         <v>1095.3</v>
       </c>
-      <c r="H703" s="39"/>
+      <c r="H703" s="13"/>
     </row>
     <row r="704" ht="15.6" spans="2:8">
-      <c r="B704" s="39"/>
-      <c r="C704" s="38" t="s">
+      <c r="B704" s="13"/>
+      <c r="C704" s="11" t="s">
         <v>452</v>
       </c>
       <c r="D704" s="11" t="s">
@@ -25646,18 +25634,18 @@
       <c r="E704" s="12">
         <v>4</v>
       </c>
-      <c r="F704" s="38">
+      <c r="F704" s="11">
         <v>1092.1</v>
       </c>
       <c r="G704" s="2">
         <f t="shared" si="16"/>
         <v>4368.4</v>
       </c>
-      <c r="H704" s="39"/>
+      <c r="H704" s="13"/>
     </row>
     <row r="705" ht="15.6" spans="2:8">
-      <c r="B705" s="39"/>
-      <c r="C705" s="38" t="s">
+      <c r="B705" s="13"/>
+      <c r="C705" s="11" t="s">
         <v>893</v>
       </c>
       <c r="D705" s="11" t="s">
@@ -25666,18 +25654,18 @@
       <c r="E705" s="12">
         <v>1</v>
       </c>
-      <c r="F705" s="38">
+      <c r="F705" s="11">
         <v>1096.8</v>
       </c>
       <c r="G705" s="2">
         <f t="shared" si="16"/>
         <v>1096.8</v>
       </c>
-      <c r="H705" s="39"/>
+      <c r="H705" s="13"/>
     </row>
     <row r="706" ht="15.6" spans="2:8">
-      <c r="B706" s="39"/>
-      <c r="C706" s="38" t="s">
+      <c r="B706" s="13"/>
+      <c r="C706" s="11" t="s">
         <v>894</v>
       </c>
       <c r="D706" s="11" t="s">
@@ -25686,18 +25674,18 @@
       <c r="E706" s="12">
         <v>1</v>
       </c>
-      <c r="F706" s="38">
+      <c r="F706" s="11">
         <v>1096.8</v>
       </c>
       <c r="G706" s="2">
         <f t="shared" si="16"/>
         <v>1096.8</v>
       </c>
-      <c r="H706" s="39"/>
+      <c r="H706" s="13"/>
     </row>
     <row r="707" ht="15.6" spans="2:8">
-      <c r="B707" s="39"/>
-      <c r="C707" s="38" t="s">
+      <c r="B707" s="13"/>
+      <c r="C707" s="11" t="s">
         <v>895</v>
       </c>
       <c r="D707" s="11" t="s">
@@ -25706,18 +25694,18 @@
       <c r="E707" s="12">
         <v>1</v>
       </c>
-      <c r="F707" s="38">
+      <c r="F707" s="11">
         <v>1097.4</v>
       </c>
       <c r="G707" s="2">
         <f t="shared" si="16"/>
         <v>1097.4</v>
       </c>
-      <c r="H707" s="39"/>
+      <c r="H707" s="13"/>
     </row>
     <row r="708" ht="15.6" spans="2:8">
-      <c r="B708" s="39"/>
-      <c r="C708" s="38" t="s">
+      <c r="B708" s="13"/>
+      <c r="C708" s="11" t="s">
         <v>896</v>
       </c>
       <c r="D708" s="11" t="s">
@@ -25726,17 +25714,17 @@
       <c r="E708" s="12">
         <v>1</v>
       </c>
-      <c r="F708" s="38">
+      <c r="F708" s="11">
         <v>1095.3</v>
       </c>
       <c r="G708" s="2">
         <f t="shared" si="16"/>
         <v>1095.3</v>
       </c>
-      <c r="H708" s="39"/>
+      <c r="H708" s="13"/>
     </row>
     <row r="709" ht="15.6" spans="2:8">
-      <c r="B709" s="39"/>
+      <c r="B709" s="13"/>
       <c r="C709" s="12" t="s">
         <v>897</v>
       </c>
@@ -25753,10 +25741,10 @@
         <f t="shared" si="16"/>
         <v>1667.4</v>
       </c>
-      <c r="H709" s="39"/>
+      <c r="H709" s="13"/>
     </row>
     <row r="710" ht="15.6" spans="2:8">
-      <c r="B710" s="39"/>
+      <c r="B710" s="13"/>
       <c r="C710" s="12" t="s">
         <v>899</v>
       </c>
@@ -25773,10 +25761,10 @@
         <f t="shared" si="16"/>
         <v>624</v>
       </c>
-      <c r="H710" s="39"/>
+      <c r="H710" s="13"/>
     </row>
     <row r="711" ht="15.6" spans="2:8">
-      <c r="B711" s="39"/>
+      <c r="B711" s="13"/>
       <c r="C711" s="12" t="s">
         <v>900</v>
       </c>
@@ -25793,10 +25781,10 @@
         <f t="shared" si="16"/>
         <v>454.4</v>
       </c>
-      <c r="H711" s="39"/>
+      <c r="H711" s="13"/>
     </row>
     <row r="712" ht="15.6" spans="2:8">
-      <c r="B712" s="39"/>
+      <c r="B712" s="13"/>
       <c r="C712" s="12" t="s">
         <v>901</v>
       </c>
@@ -25813,10 +25801,10 @@
         <f t="shared" si="16"/>
         <v>687.3</v>
       </c>
-      <c r="H712" s="39"/>
+      <c r="H712" s="13"/>
     </row>
     <row r="713" ht="15.6" spans="2:8">
-      <c r="B713" s="39"/>
+      <c r="B713" s="13"/>
       <c r="C713" s="12" t="s">
         <v>450</v>
       </c>
@@ -25833,10 +25821,10 @@
         <f t="shared" si="16"/>
         <v>1000.8</v>
       </c>
-      <c r="H713" s="39"/>
+      <c r="H713" s="13"/>
     </row>
     <row r="714" ht="15.6" spans="2:8">
-      <c r="B714" s="39"/>
+      <c r="B714" s="13"/>
       <c r="C714" s="12" t="s">
         <v>902</v>
       </c>
@@ -25853,10 +25841,10 @@
         <f t="shared" si="16"/>
         <v>718.2</v>
       </c>
-      <c r="H714" s="39"/>
+      <c r="H714" s="13"/>
     </row>
     <row r="715" ht="15.6" spans="2:8">
-      <c r="B715" s="39"/>
+      <c r="B715" s="13"/>
       <c r="C715" s="12" t="s">
         <v>903</v>
       </c>
@@ -25873,10 +25861,10 @@
         <f t="shared" si="16"/>
         <v>118.6</v>
       </c>
-      <c r="H715" s="39"/>
+      <c r="H715" s="13"/>
     </row>
     <row r="716" ht="15.6" spans="2:8">
-      <c r="B716" s="39"/>
+      <c r="B716" s="13"/>
       <c r="C716" s="12" t="s">
         <v>904</v>
       </c>
@@ -25893,10 +25881,10 @@
         <f t="shared" si="16"/>
         <v>115.2</v>
       </c>
-      <c r="H716" s="39"/>
+      <c r="H716" s="13"/>
     </row>
     <row r="717" ht="15.6" spans="2:8">
-      <c r="B717" s="39"/>
+      <c r="B717" s="13"/>
       <c r="C717" s="12" t="s">
         <v>863</v>
       </c>
@@ -25913,10 +25901,10 @@
         <f t="shared" si="16"/>
         <v>2480</v>
       </c>
-      <c r="H717" s="39"/>
+      <c r="H717" s="13"/>
     </row>
     <row r="718" ht="15.6" spans="2:8">
-      <c r="B718" s="39"/>
+      <c r="B718" s="13"/>
       <c r="C718" s="12" t="s">
         <v>905</v>
       </c>
@@ -25933,10 +25921,10 @@
         <f t="shared" si="16"/>
         <v>711.6</v>
       </c>
-      <c r="H718" s="39"/>
+      <c r="H718" s="13"/>
     </row>
     <row r="719" ht="15.6" spans="2:8">
-      <c r="B719" s="39"/>
+      <c r="B719" s="13"/>
       <c r="C719" s="12" t="s">
         <v>447</v>
       </c>
@@ -25953,10 +25941,10 @@
         <f t="shared" si="16"/>
         <v>606.4</v>
       </c>
-      <c r="H719" s="39"/>
+      <c r="H719" s="13"/>
     </row>
     <row r="720" ht="15.6" spans="2:8">
-      <c r="B720" s="39"/>
+      <c r="B720" s="13"/>
       <c r="C720" s="12" t="s">
         <v>449</v>
       </c>
@@ -25973,10 +25961,10 @@
         <f t="shared" si="16"/>
         <v>356.8</v>
       </c>
-      <c r="H720" s="39"/>
+      <c r="H720" s="13"/>
     </row>
     <row r="721" ht="15.6" spans="2:8">
-      <c r="B721" s="39"/>
+      <c r="B721" s="13"/>
       <c r="C721" s="12" t="s">
         <v>906</v>
       </c>
@@ -25993,10 +25981,10 @@
         <f t="shared" si="16"/>
         <v>730.4</v>
       </c>
-      <c r="H721" s="39"/>
+      <c r="H721" s="13"/>
     </row>
     <row r="722" ht="15.6" spans="2:8">
-      <c r="B722" s="39"/>
+      <c r="B722" s="13"/>
       <c r="C722" s="12" t="s">
         <v>907</v>
       </c>
@@ -26013,10 +26001,10 @@
         <f t="shared" si="16"/>
         <v>356.4</v>
       </c>
-      <c r="H722" s="39"/>
+      <c r="H722" s="13"/>
     </row>
     <row r="723" ht="15.6" spans="2:8">
-      <c r="B723" s="39"/>
+      <c r="B723" s="13"/>
       <c r="C723" s="12" t="s">
         <v>908</v>
       </c>
@@ -26033,10 +26021,10 @@
         <f t="shared" si="16"/>
         <v>88.9</v>
       </c>
-      <c r="H723" s="39"/>
+      <c r="H723" s="13"/>
     </row>
     <row r="724" ht="15.6" spans="2:8">
-      <c r="B724" s="39"/>
+      <c r="B724" s="13"/>
       <c r="C724" s="12" t="s">
         <v>909</v>
       </c>
@@ -26053,10 +26041,10 @@
         <f t="shared" si="16"/>
         <v>90.3</v>
       </c>
-      <c r="H724" s="39"/>
+      <c r="H724" s="13"/>
     </row>
     <row r="725" ht="15.6" spans="2:8">
-      <c r="B725" s="39"/>
+      <c r="B725" s="13"/>
       <c r="C725" s="12" t="s">
         <v>910</v>
       </c>
@@ -26073,10 +26061,10 @@
         <f t="shared" si="16"/>
         <v>90.9</v>
       </c>
-      <c r="H725" s="39"/>
+      <c r="H725" s="13"/>
     </row>
     <row r="726" ht="15.6" spans="2:8">
-      <c r="B726" s="39"/>
+      <c r="B726" s="13"/>
       <c r="C726" s="12" t="s">
         <v>911</v>
       </c>
@@ -26093,10 +26081,10 @@
         <f t="shared" si="16"/>
         <v>92.4</v>
       </c>
-      <c r="H726" s="39"/>
+      <c r="H726" s="13"/>
     </row>
     <row r="727" ht="15.6" spans="2:8">
-      <c r="B727" s="39"/>
+      <c r="B727" s="13"/>
       <c r="C727" s="12" t="s">
         <v>912</v>
       </c>
@@ -26113,10 +26101,10 @@
         <f t="shared" si="16"/>
         <v>89.2</v>
       </c>
-      <c r="H727" s="39"/>
+      <c r="H727" s="13"/>
     </row>
     <row r="728" ht="15.6" spans="2:8">
-      <c r="B728" s="39"/>
+      <c r="B728" s="13"/>
       <c r="C728" s="12" t="s">
         <v>913</v>
       </c>
@@ -26133,10 +26121,10 @@
         <f t="shared" si="16"/>
         <v>90.7</v>
       </c>
-      <c r="H728" s="39"/>
+      <c r="H728" s="13"/>
     </row>
     <row r="729" ht="15.6" spans="2:8">
-      <c r="B729" s="39"/>
+      <c r="B729" s="13"/>
       <c r="C729" s="12" t="s">
         <v>914</v>
       </c>
@@ -26153,10 +26141,10 @@
         <f t="shared" si="16"/>
         <v>87.4</v>
       </c>
-      <c r="H729" s="39"/>
+      <c r="H729" s="13"/>
     </row>
     <row r="730" ht="15.6" spans="2:8">
-      <c r="B730" s="39"/>
+      <c r="B730" s="13"/>
       <c r="C730" s="12" t="s">
         <v>915</v>
       </c>
@@ -26173,10 +26161,10 @@
         <f t="shared" si="16"/>
         <v>88.8</v>
       </c>
-      <c r="H730" s="39"/>
+      <c r="H730" s="13"/>
     </row>
     <row r="731" ht="15.6" spans="2:8">
-      <c r="B731" s="39"/>
+      <c r="B731" s="13"/>
       <c r="C731" s="12" t="s">
         <v>916</v>
       </c>
@@ -26193,10 +26181,10 @@
         <f t="shared" si="16"/>
         <v>87.7</v>
       </c>
-      <c r="H731" s="39"/>
+      <c r="H731" s="13"/>
     </row>
     <row r="732" ht="15.6" spans="2:8">
-      <c r="B732" s="39"/>
+      <c r="B732" s="13"/>
       <c r="C732" s="12" t="s">
         <v>917</v>
       </c>
@@ -26213,10 +26201,10 @@
         <f t="shared" si="16"/>
         <v>88.3</v>
       </c>
-      <c r="H732" s="39"/>
+      <c r="H732" s="13"/>
     </row>
     <row r="733" ht="15.6" spans="2:8">
-      <c r="B733" s="39"/>
+      <c r="B733" s="13"/>
       <c r="C733" s="12" t="s">
         <v>918</v>
       </c>
@@ -26233,10 +26221,10 @@
         <f t="shared" si="16"/>
         <v>92</v>
       </c>
-      <c r="H733" s="39"/>
+      <c r="H733" s="13"/>
     </row>
     <row r="734" ht="15.6" spans="2:8">
-      <c r="B734" s="39"/>
+      <c r="B734" s="13"/>
       <c r="C734" s="12" t="s">
         <v>919</v>
       </c>
@@ -26253,10 +26241,10 @@
         <f t="shared" si="16"/>
         <v>92.6</v>
       </c>
-      <c r="H734" s="39"/>
+      <c r="H734" s="13"/>
     </row>
     <row r="735" ht="15.6" spans="2:8">
-      <c r="B735" s="39"/>
+      <c r="B735" s="13"/>
       <c r="C735" s="12" t="s">
         <v>920</v>
       </c>
@@ -26273,10 +26261,10 @@
         <f t="shared" si="16"/>
         <v>92.6</v>
       </c>
-      <c r="H735" s="39"/>
+      <c r="H735" s="13"/>
     </row>
     <row r="736" ht="15.6" spans="2:8">
-      <c r="B736" s="39"/>
+      <c r="B736" s="13"/>
       <c r="C736" s="12" t="s">
         <v>921</v>
       </c>
@@ -26293,10 +26281,10 @@
         <f t="shared" ref="G736:G742" si="17">F736*E736</f>
         <v>93.3</v>
       </c>
-      <c r="H736" s="39"/>
+      <c r="H736" s="13"/>
     </row>
     <row r="737" ht="15.6" spans="2:8">
-      <c r="B737" s="39"/>
+      <c r="B737" s="13"/>
       <c r="C737" s="12" t="s">
         <v>922</v>
       </c>
@@ -26313,10 +26301,10 @@
         <f t="shared" si="17"/>
         <v>93</v>
       </c>
-      <c r="H737" s="39"/>
+      <c r="H737" s="13"/>
     </row>
     <row r="738" ht="15.6" spans="2:8">
-      <c r="B738" s="39"/>
+      <c r="B738" s="13"/>
       <c r="C738" s="12" t="s">
         <v>923</v>
       </c>
@@ -26333,10 +26321,10 @@
         <f t="shared" si="17"/>
         <v>93.6</v>
       </c>
-      <c r="H738" s="39"/>
+      <c r="H738" s="13"/>
     </row>
     <row r="739" ht="15.6" spans="2:8">
-      <c r="B739" s="39"/>
+      <c r="B739" s="13"/>
       <c r="C739" s="12" t="s">
         <v>924</v>
       </c>
@@ -26353,10 +26341,10 @@
         <f t="shared" si="17"/>
         <v>307</v>
       </c>
-      <c r="H739" s="39"/>
+      <c r="H739" s="13"/>
     </row>
     <row r="740" ht="15.6" spans="2:8">
-      <c r="B740" s="39"/>
+      <c r="B740" s="13"/>
       <c r="C740" s="12" t="s">
         <v>926</v>
       </c>
@@ -26373,10 +26361,10 @@
         <f t="shared" si="17"/>
         <v>287.2</v>
       </c>
-      <c r="H740" s="39"/>
+      <c r="H740" s="13"/>
     </row>
     <row r="741" ht="15.6" spans="2:8">
-      <c r="B741" s="39"/>
+      <c r="B741" s="13"/>
       <c r="C741" s="12" t="s">
         <v>927</v>
       </c>
@@ -26393,10 +26381,10 @@
         <f t="shared" si="17"/>
         <v>314.6</v>
       </c>
-      <c r="H741" s="39"/>
+      <c r="H741" s="13"/>
     </row>
     <row r="742" ht="15.6" spans="2:8">
-      <c r="B742" s="40"/>
+      <c r="B742" s="14"/>
       <c r="C742" s="12" t="s">
         <v>928</v>
       </c>
@@ -26413,7 +26401,7 @@
         <f t="shared" si="17"/>
         <v>369</v>
       </c>
-      <c r="H742" s="40"/>
+      <c r="H742" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J742">
@@ -26508,12 +26496,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -26530,47 +26518,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="21" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27469,8 +27457,25 @@
         <v>881</v>
       </c>
     </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44258.4</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O59">
+  <autoFilter ref="A1:O60">
     <extLst/>
   </autoFilter>
   <mergeCells count="16">
@@ -27499,6 +27504,58 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
+    <col min="2" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="5" max="7" width="5.66666666666667" customWidth="1"/>
+    <col min="18" max="27" width="8.88888888888889" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29254,7 +29311,7 @@
         <v>453</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F82" s="5">
         <v>683.4</v>
@@ -29276,7 +29333,7 @@
         <v>453</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F83" s="5">
         <v>684.3</v>
@@ -29298,7 +29355,7 @@
         <v>453</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F84" s="5">
         <v>625.5</v>
@@ -29320,7 +29377,7 @@
         <v>453</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F85" s="5">
         <v>637.4</v>
@@ -29342,7 +29399,7 @@
         <v>453</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F86" s="5">
         <v>615.4</v>
@@ -29364,7 +29421,7 @@
         <v>453</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F87" s="5">
         <v>315.9</v>
@@ -29386,7 +29443,7 @@
         <v>453</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F88" s="5">
         <v>316.6</v>
@@ -29408,7 +29465,7 @@
         <v>453</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F89" s="5">
         <v>664.3</v>
@@ -29430,7 +29487,7 @@
         <v>453</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F90" s="5">
         <v>607.4</v>
@@ -29474,7 +29531,7 @@
         <v>463</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F92" s="5">
         <v>666.7</v>
@@ -29496,7 +29553,7 @@
         <v>463</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F93" s="5">
         <v>667</v>
@@ -29518,7 +29575,7 @@
         <v>453</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F94" s="5">
         <v>605</v>
@@ -29540,7 +29597,7 @@
         <v>453</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F95" s="5">
         <v>413.4</v>
@@ -29562,7 +29619,7 @@
         <v>511</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F96" s="5">
         <v>467.8</v>
@@ -29584,7 +29641,7 @@
         <v>511</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F97" s="5">
         <v>468.7</v>
@@ -29606,7 +29663,7 @@
         <v>472</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F98" s="5">
         <v>3090.6</v>
@@ -29935,7 +29992,7 @@
         <v>711</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E113" s="11">
         <v>1</v>
@@ -29957,7 +30014,7 @@
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E114" s="11">
         <v>2</v>
@@ -29977,7 +30034,7 @@
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E115" s="11">
         <v>2</v>
@@ -29997,7 +30054,7 @@
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E116" s="11">
         <v>2</v>
@@ -30017,7 +30074,7 @@
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E117" s="11">
         <v>2</v>
@@ -30037,7 +30094,7 @@
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="11" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E118" s="11">
         <v>1</v>

--- a/成品统计.xlsx
+++ b/成品统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="4"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="油漆2020年12月份" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="965">
   <si>
     <t>序号</t>
   </si>
@@ -2881,6 +2881,9 @@
   </si>
   <si>
     <t>2021.2.3</t>
+  </si>
+  <si>
+    <t>2021.2.4</t>
   </si>
   <si>
     <t>1DCL3</t>
@@ -2928,9 +2931,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2966,8 +2969,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2980,15 +3029,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3002,11 +3073,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3018,40 +3104,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3066,67 +3123,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3146,9 +3142,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3161,24 +3187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3198,13 +3208,6 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="93">
     <fill>
@@ -3215,7 +3218,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,13 +3326,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
+        <fgColor theme="5" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,313 +3494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3569,7 +3512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3587,7 +3536,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399822992645039"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,7 +3614,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
+        <fgColor theme="7" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399792474135563"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3611,85 +3710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399792474135563"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3707,55 +3734,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399853511154515"/>
+        <fgColor theme="8" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399792474135563"/>
+        <fgColor theme="8" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399822992645039"/>
+        <fgColor theme="8" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3837,8 +3840,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3884,6 +3887,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3908,15 +3920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3935,17 +3938,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3963,7 +3957,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3981,16 +3993,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3999,7 +4002,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4011,1270 +4014,1270 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5312,7 +5315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5400,14 +5403,14 @@
   <cellStyles count="424">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="3"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="强调文字颜色 2 3 2" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="输出 3" xfId="7"/>
-    <cellStyle name="链接单元格 3 2" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="9"/>
+    <cellStyle name="链接单元格 3 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输出 3" xfId="5"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="强调文字颜色 2 3 2" xfId="7"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 6" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 3 5" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
@@ -5421,19 +5424,19 @@
     <cellStyle name="百分比" xfId="20" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9"/>
-    <cellStyle name="注释" xfId="23" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="26"/>
-    <cellStyle name="警告文本" xfId="27" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="28"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="解释性文本 2 2" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="31"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="23"/>
+    <cellStyle name="注释" xfId="24" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="26"/>
+    <cellStyle name="标题 4" xfId="27" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 6" xfId="29"/>
+    <cellStyle name="警告文本" xfId="30" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 5" xfId="31"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="33"/>
+    <cellStyle name="强调文字颜色 1 2 3" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 1 2 3" xfId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="35"/>
     <cellStyle name="标题" xfId="36" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="37" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="38"/>
@@ -5447,28 +5450,28 @@
     <cellStyle name="输出" xfId="46" builtinId="21"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
     <cellStyle name="计算" xfId="48" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="计算 3 2" xfId="50"/>
+    <cellStyle name="计算 3 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
     <cellStyle name="检查单元格" xfId="51" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="52" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="53" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="54"/>
     <cellStyle name="链接单元格" xfId="55" builtinId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="56"/>
-    <cellStyle name="强调文字颜色 3 2 4" xfId="57"/>
+    <cellStyle name="强调文字颜色 3 2 4" xfId="56"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="57"/>
     <cellStyle name="汇总" xfId="58" builtinId="25"/>
     <cellStyle name="差 3 4" xfId="59"/>
     <cellStyle name="好" xfId="60" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="61"/>
-    <cellStyle name="输出 3 3" xfId="62"/>
+    <cellStyle name="输出 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="62"/>
     <cellStyle name="适中" xfId="63" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="64" builtinId="46"/>
     <cellStyle name="检查单元格 3 2" xfId="65"/>
     <cellStyle name="强调文字颜色 1" xfId="66" builtinId="29"/>
     <cellStyle name="链接单元格 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="68" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="70"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 7" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="70"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="71" builtinId="31"/>
     <cellStyle name="输出 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="73" builtinId="34"/>
@@ -5483,83 +5486,83 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="85"/>
-    <cellStyle name="适中 2" xfId="86"/>
+    <cellStyle name="适中 2" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="88" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 1 3 7" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="91"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="93"/>
-    <cellStyle name="链接单元格 3 3" xfId="94"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="92"/>
+    <cellStyle name="链接单元格 3 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="94"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="97"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="101"/>
+    <cellStyle name="计算 2 2" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="102"/>
-    <cellStyle name="计算 2 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="103"/>
+    <cellStyle name="计算 2 3" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="105"/>
-    <cellStyle name="计算 2 3" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="106"/>
     <cellStyle name="20% - 强调文字颜色 1 3 6" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="108"/>
+    <cellStyle name="输出 2 2" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="109"/>
-    <cellStyle name="输出 2 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="114"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="116"/>
-    <cellStyle name="输出 2 3" xfId="117"/>
+    <cellStyle name="输出 2 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="120"/>
-    <cellStyle name="常规 2 2 2" xfId="121"/>
+    <cellStyle name="常规 2 2 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="122"/>
     <cellStyle name="20% - 强调文字颜色 2 3 7" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="124"/>
+    <cellStyle name="输出 3 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 3 3 7" xfId="125"/>
-    <cellStyle name="输出 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="130"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="132"/>
-    <cellStyle name="适中 3" xfId="133"/>
+    <cellStyle name="适中 3" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="133"/>
     <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="134"/>
     <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="135"/>
     <cellStyle name="20% - 强调文字颜色 3 3 6" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="137"/>
+    <cellStyle name="常规 3" xfId="137"/>
     <cellStyle name="60% - 强调文字颜色 1 2 7" xfId="138"/>
-    <cellStyle name="常规 3" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="140"/>
-    <cellStyle name="常规 3 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="139"/>
+    <cellStyle name="常规 3 2" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="141"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="142"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="144"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="146"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="147"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="145"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="149"/>
-    <cellStyle name="常规 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="151"/>
-    <cellStyle name="常规 4 2" xfId="152"/>
+    <cellStyle name="常规 4" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="150"/>
+    <cellStyle name="常规 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="155"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="157"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="158"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="156"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 6" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 3 7" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="160"/>
-    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="161"/>
+    <cellStyle name="60% - 强调文字颜色 1 3 7" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="164"/>
@@ -5568,177 +5571,177 @@
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="170"/>
+    <cellStyle name="解释性文本 2 3" xfId="170"/>
     <cellStyle name="标题 5" xfId="171"/>
-    <cellStyle name="解释性文本 2 3" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="173"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 7" xfId="172"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 4" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="181"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
-    <cellStyle name="好 2 5" xfId="184"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 5" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="182"/>
+    <cellStyle name="好 2 5" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="184"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="186"/>
-    <cellStyle name="注释 2 2" xfId="187"/>
+    <cellStyle name="注释 2 2" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 6 3 6" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 6 3 7" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="191"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="192"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 7" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="194"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="196"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 7" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="195"/>
+    <cellStyle name="解释性文本 3 3" xfId="196"/>
     <cellStyle name="60% - 强调文字颜色 3 2 7" xfId="197"/>
-    <cellStyle name="解释性文本 3 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="199"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="201"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 7" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="200"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 7" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="204"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 7" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="205"/>
+    <cellStyle name="检查单元格 2" xfId="206"/>
     <cellStyle name="60% - 强调文字颜色 5 2 7" xfId="207"/>
-    <cellStyle name="检查单元格 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="209"/>
-    <cellStyle name="检查单元格 3" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="211"/>
-    <cellStyle name="计算 3 3" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="213"/>
-    <cellStyle name="好 2 3" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="208"/>
+    <cellStyle name="检查单元格 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="210"/>
+    <cellStyle name="计算 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="212"/>
+    <cellStyle name="好 2 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="214"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="215"/>
     <cellStyle name="60% - 强调文字颜色 4 3" xfId="216"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 7" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="217"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="219"/>
-    <cellStyle name="好 2 4" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="221"/>
+    <cellStyle name="好 2 4" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="220"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="221"/>
     <cellStyle name="60% - 强调文字颜色 5 3" xfId="222"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="225"/>
+    <cellStyle name="适中 2 2" xfId="225"/>
     <cellStyle name="好 3 3" xfId="226"/>
-    <cellStyle name="适中 2 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="230"/>
-    <cellStyle name="好 3 4" xfId="231"/>
-    <cellStyle name="强调文字颜色 3 2 2" xfId="232"/>
-    <cellStyle name="适中 2 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="234"/>
-    <cellStyle name="解释性文本 3" xfId="235"/>
+    <cellStyle name="适中 2 3" xfId="230"/>
+    <cellStyle name="强调文字颜色 3 2 2" xfId="231"/>
+    <cellStyle name="好 3 4" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="233"/>
+    <cellStyle name="解释性文本 3" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="235"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="236"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="237"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="238"/>
     <cellStyle name="60% - 强调文字颜色 1 2 3" xfId="239"/>
     <cellStyle name="60% - 强调文字颜色 1 2 4" xfId="240"/>
     <cellStyle name="60% - 强调文字颜色 1 2 5" xfId="241"/>
-    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="242"/>
-    <cellStyle name="常规 2" xfId="243"/>
+    <cellStyle name="常规 2" xfId="242"/>
+    <cellStyle name="60% - 强调文字颜色 1 2 6" xfId="243"/>
     <cellStyle name="60% - 强调文字颜色 1 3" xfId="244"/>
     <cellStyle name="60% - 强调文字颜色 1 3 2" xfId="245"/>
     <cellStyle name="60% - 强调文字颜色 1 3 3" xfId="246"/>
     <cellStyle name="60% - 强调文字颜色 1 3 4" xfId="247"/>
     <cellStyle name="60% - 强调文字颜色 1 3 6" xfId="248"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="249"/>
-    <cellStyle name="常规 5" xfId="250"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="251"/>
-    <cellStyle name="强调文字颜色 1 2 4" xfId="252"/>
+    <cellStyle name="常规 5" xfId="249"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="250"/>
+    <cellStyle name="强调文字颜色 1 2 4" xfId="251"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="252"/>
     <cellStyle name="60% - 强调文字颜色 2 2 4" xfId="253"/>
     <cellStyle name="60% - 强调文字颜色 2 2 5" xfId="254"/>
     <cellStyle name="60% - 强调文字颜色 2 2 6" xfId="255"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="256"/>
+    <cellStyle name="注释 2" xfId="256"/>
     <cellStyle name="强调文字颜色 1 3 3" xfId="257"/>
-    <cellStyle name="注释 2" xfId="258"/>
-    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="259"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 2" xfId="258"/>
+    <cellStyle name="注释 3" xfId="259"/>
     <cellStyle name="强调文字颜色 1 3 4" xfId="260"/>
-    <cellStyle name="注释 3" xfId="261"/>
+    <cellStyle name="60% - 强调文字颜色 2 3 3" xfId="261"/>
     <cellStyle name="60% - 强调文字颜色 2 3 4" xfId="262"/>
     <cellStyle name="60% - 强调文字颜色 2 3 6" xfId="263"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="264"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="265"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="266"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="267"/>
-    <cellStyle name="强调文字颜色 2 2 4" xfId="268"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="265"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="266"/>
+    <cellStyle name="强调文字颜色 2 2 4" xfId="267"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="268"/>
     <cellStyle name="60% - 强调文字颜色 3 2 4" xfId="269"/>
     <cellStyle name="60% - 强调文字颜色 3 2 5" xfId="270"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="271"/>
-    <cellStyle name="解释性文本 3 2" xfId="272"/>
+    <cellStyle name="解释性文本 3 2" xfId="271"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 6" xfId="272"/>
     <cellStyle name="60% - 强调文字颜色 3 3" xfId="273"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="274"/>
-    <cellStyle name="强调文字颜色 2 3 3" xfId="275"/>
-    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="276"/>
-    <cellStyle name="强调文字颜色 2 3 4" xfId="277"/>
+    <cellStyle name="强调文字颜色 2 3 3" xfId="274"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 2" xfId="275"/>
+    <cellStyle name="强调文字颜色 2 3 4" xfId="276"/>
+    <cellStyle name="60% - 强调文字颜色 3 3 3" xfId="277"/>
     <cellStyle name="60% - 强调文字颜色 3 3 4" xfId="278"/>
     <cellStyle name="60% - 强调文字颜色 3 3 5" xfId="279"/>
     <cellStyle name="60% - 强调文字颜色 3 3 6" xfId="280"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="281"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="282"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="283"/>
-    <cellStyle name="好 3 5" xfId="284"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="285"/>
-    <cellStyle name="适中 2 4" xfId="286"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="287"/>
-    <cellStyle name="注释 3 2" xfId="288"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 6" xfId="281"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="282"/>
+    <cellStyle name="适中 2 4" xfId="283"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="284"/>
+    <cellStyle name="好 3 5" xfId="285"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="286"/>
+    <cellStyle name="注释 3 2" xfId="287"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 4" xfId="288"/>
     <cellStyle name="60% - 强调文字颜色 4 2 5" xfId="289"/>
     <cellStyle name="60% - 强调文字颜色 4 2 6" xfId="290"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="291"/>
+    <cellStyle name="适中 3 4" xfId="291"/>
     <cellStyle name="强调文字颜色 3 3 3" xfId="292"/>
-    <cellStyle name="适中 3 4" xfId="293"/>
-    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="294"/>
-    <cellStyle name="强调文字颜色 3 3 4" xfId="295"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 2" xfId="293"/>
+    <cellStyle name="强调文字颜色 3 3 4" xfId="294"/>
+    <cellStyle name="60% - 强调文字颜色 4 3 3" xfId="295"/>
     <cellStyle name="60% - 强调文字颜色 4 3 4" xfId="296"/>
     <cellStyle name="60% - 强调文字颜色 4 3 5" xfId="297"/>
     <cellStyle name="60% - 强调文字颜色 4 3 6" xfId="298"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="299"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="300"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="301"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 6" xfId="299"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="300"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="301"/>
     <cellStyle name="标题 3 2 6" xfId="302"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="303"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="304"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="303"/>
+    <cellStyle name="强调文字颜色 4 2 4" xfId="304"/>
     <cellStyle name="标题 3 2 7" xfId="305"/>
-    <cellStyle name="强调文字颜色 4 2 4" xfId="306"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="306"/>
     <cellStyle name="60% - 强调文字颜色 5 2 4" xfId="307"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="308"/>
-    <cellStyle name="标题 4 2" xfId="309"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="310"/>
+    <cellStyle name="标题 4 2" xfId="308"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 5" xfId="309"/>
+    <cellStyle name="汇总 2 2" xfId="310"/>
     <cellStyle name="标题 4 3" xfId="311"/>
-    <cellStyle name="汇总 2 2" xfId="312"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="313"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 6" xfId="312"/>
+    <cellStyle name="强调文字颜色 4 3 3" xfId="313"/>
     <cellStyle name="标题 3 3 6" xfId="314"/>
-    <cellStyle name="强调文字颜色 4 3 3" xfId="315"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="316"/>
-    <cellStyle name="标题 3 3 7" xfId="317"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="318"/>
-    <cellStyle name="强调文字颜色 4 3 4" xfId="319"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="320"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="321"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="322"/>
-    <cellStyle name="标题 5 2" xfId="323"/>
-    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="324"/>
-    <cellStyle name="汇总 3 2" xfId="325"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 2" xfId="315"/>
+    <cellStyle name="强调文字颜色 4 3 4" xfId="316"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="317"/>
+    <cellStyle name="标题 3 3 7" xfId="318"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 3" xfId="319"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="320"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 4" xfId="321"/>
+    <cellStyle name="标题 5 2" xfId="322"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 5" xfId="323"/>
+    <cellStyle name="汇总 3 2" xfId="324"/>
+    <cellStyle name="60% - 强调文字颜色 5 3 6" xfId="325"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="326"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="327"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="328"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="329"/>
-    <cellStyle name="强调文字颜色 5 2 4" xfId="330"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="327"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="328"/>
+    <cellStyle name="强调文字颜色 5 2 4" xfId="329"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="330"/>
     <cellStyle name="60% - 强调文字颜色 6 3" xfId="331"/>
-    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="332"/>
-    <cellStyle name="强调文字颜色 5 3 4" xfId="333"/>
+    <cellStyle name="强调文字颜色 5 3 4" xfId="332"/>
+    <cellStyle name="60% - 强调文字颜色 6 3 3" xfId="333"/>
     <cellStyle name="60% - 强调文字颜色 6 3 4" xfId="334"/>
     <cellStyle name="60% - 强调文字颜色 6 3 5" xfId="335"/>
     <cellStyle name="标题 1 2" xfId="336"/>
     <cellStyle name="标题 1 2 2" xfId="337"/>
     <cellStyle name="标题 1 3" xfId="338"/>
-    <cellStyle name="标题 1 3 2" xfId="339"/>
-    <cellStyle name="汇总 3" xfId="340"/>
+    <cellStyle name="汇总 3" xfId="339"/>
+    <cellStyle name="标题 1 3 2" xfId="340"/>
     <cellStyle name="标题 2 2" xfId="341"/>
     <cellStyle name="标题 2 2 2" xfId="342"/>
     <cellStyle name="标题 2 3" xfId="343"/>
@@ -5747,18 +5750,18 @@
     <cellStyle name="标题 3 2 2" xfId="346"/>
     <cellStyle name="标题 3 2 3" xfId="347"/>
     <cellStyle name="标题 3 2 4" xfId="348"/>
-    <cellStyle name="标题 3 2 5" xfId="349"/>
-    <cellStyle name="强调文字颜色 4 2 2" xfId="350"/>
+    <cellStyle name="强调文字颜色 4 2 2" xfId="349"/>
+    <cellStyle name="标题 3 2 5" xfId="350"/>
     <cellStyle name="标题 3 3" xfId="351"/>
     <cellStyle name="标题 3 3 2" xfId="352"/>
     <cellStyle name="标题 3 3 3" xfId="353"/>
     <cellStyle name="标题 3 3 4" xfId="354"/>
-    <cellStyle name="标题 3 3 5" xfId="355"/>
-    <cellStyle name="强调文字颜色 4 3 2" xfId="356"/>
+    <cellStyle name="强调文字颜色 4 3 2" xfId="355"/>
+    <cellStyle name="标题 3 3 5" xfId="356"/>
     <cellStyle name="标题 4 2 2" xfId="357"/>
     <cellStyle name="标题 4 3 2" xfId="358"/>
-    <cellStyle name="标题 6" xfId="359"/>
-    <cellStyle name="解释性文本 2 4" xfId="360"/>
+    <cellStyle name="解释性文本 2 4" xfId="359"/>
+    <cellStyle name="标题 6" xfId="360"/>
     <cellStyle name="标题 6 2" xfId="361"/>
     <cellStyle name="差 2" xfId="362"/>
     <cellStyle name="差 2 2" xfId="363"/>
@@ -5770,11 +5773,11 @@
     <cellStyle name="差 3 3" xfId="369"/>
     <cellStyle name="差 3 5" xfId="370"/>
     <cellStyle name="常规 2 2" xfId="371"/>
-    <cellStyle name="常规 2 3" xfId="372"/>
-    <cellStyle name="输入 3 2" xfId="373"/>
+    <cellStyle name="输入 3 2" xfId="372"/>
+    <cellStyle name="常规 2 3" xfId="373"/>
     <cellStyle name="常规 2 3 2" xfId="374"/>
-    <cellStyle name="常规 2 4" xfId="375"/>
-    <cellStyle name="输入 3 3" xfId="376"/>
+    <cellStyle name="输入 3 3" xfId="375"/>
+    <cellStyle name="常规 2 4" xfId="376"/>
     <cellStyle name="好 2" xfId="377"/>
     <cellStyle name="好 2 2" xfId="378"/>
     <cellStyle name="好 3" xfId="379"/>
@@ -5799,16 +5802,16 @@
     <cellStyle name="强调文字颜色 2 2" xfId="398"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="399"/>
     <cellStyle name="强调文字颜色 2 3" xfId="400"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="401"/>
-    <cellStyle name="输入 2 4" xfId="402"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="403"/>
-    <cellStyle name="输入 2 5" xfId="404"/>
-    <cellStyle name="强调文字颜色 3 3 2" xfId="405"/>
-    <cellStyle name="适中 3 3" xfId="406"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="407"/>
-    <cellStyle name="输入 3 4" xfId="408"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="409"/>
-    <cellStyle name="输入 3 5" xfId="410"/>
+    <cellStyle name="输入 2 4" xfId="401"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="402"/>
+    <cellStyle name="输入 2 5" xfId="403"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="404"/>
+    <cellStyle name="适中 3 3" xfId="405"/>
+    <cellStyle name="强调文字颜色 3 3 2" xfId="406"/>
+    <cellStyle name="输入 3 4" xfId="407"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="408"/>
+    <cellStyle name="输入 3 5" xfId="409"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="410"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="411"/>
     <cellStyle name="强调文字颜色 5 3 2" xfId="412"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="413"/>
@@ -26536,10 +26539,10 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -27563,8 +27566,22 @@
         <v>950</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="6"/>
+    <row r="64" spans="2:6">
+      <c r="B64" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>951</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O63">
@@ -27598,8 +27615,8 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -27648,10 +27665,10 @@
         <v>866</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -27675,7 +27692,7 @@
         <v>866</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>880</v>
@@ -27702,7 +27719,7 @@
         <v>866</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>880</v>
@@ -27727,7 +27744,7 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>868</v>
@@ -27744,13 +27761,30 @@
       </c>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B6" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -29867,7 +29901,7 @@
         <v>453</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F82" s="5">
         <v>683.4</v>
@@ -29889,7 +29923,7 @@
         <v>453</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F83" s="5">
         <v>684.3</v>
@@ -29911,7 +29945,7 @@
         <v>453</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F84" s="5">
         <v>625.5</v>
@@ -29933,7 +29967,7 @@
         <v>453</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F85" s="5">
         <v>637.4</v>
@@ -29955,7 +29989,7 @@
         <v>453</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F86" s="5">
         <v>615.4</v>
@@ -29977,7 +30011,7 @@
         <v>453</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F87" s="5">
         <v>315.9</v>
@@ -29999,7 +30033,7 @@
         <v>453</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F88" s="5">
         <v>316.6</v>
@@ -30021,7 +30055,7 @@
         <v>453</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F89" s="5">
         <v>664.3</v>
@@ -30043,7 +30077,7 @@
         <v>453</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F90" s="5">
         <v>607.4</v>
@@ -30087,7 +30121,7 @@
         <v>463</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F92" s="5">
         <v>666.7</v>
@@ -30109,7 +30143,7 @@
         <v>463</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F93" s="5">
         <v>667</v>
@@ -30131,7 +30165,7 @@
         <v>453</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F94" s="5">
         <v>605</v>
@@ -30153,7 +30187,7 @@
         <v>453</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F95" s="5">
         <v>413.4</v>
@@ -30175,7 +30209,7 @@
         <v>511</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F96" s="5">
         <v>467.8</v>
@@ -30197,7 +30231,7 @@
         <v>511</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F97" s="5">
         <v>468.7</v>
@@ -30219,7 +30253,7 @@
         <v>472</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F98" s="5">
         <v>3090.6</v>
@@ -30548,7 +30582,7 @@
         <v>711</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E113" s="11">
         <v>1</v>
@@ -30570,7 +30604,7 @@
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E114" s="11">
         <v>2</v>
@@ -30590,7 +30624,7 @@
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E115" s="11">
         <v>2</v>
@@ -30610,7 +30644,7 @@
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E116" s="11">
         <v>2</v>
@@ -30630,7 +30664,7 @@
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E117" s="11">
         <v>2</v>
@@ -30650,7 +30684,7 @@
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="11" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E118" s="11">
         <v>1</v>
